--- a/test/files/FQ.xlsx
+++ b/test/files/FQ.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7506" uniqueCount="2421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7507" uniqueCount="2422">
   <si>
     <t>type</t>
   </si>
@@ -7928,6 +7928,9 @@
   </si>
   <si>
     <t>ppp_input::English</t>
+  </si>
+  <si>
+    <t>ppp_excludes</t>
   </si>
 </sst>
 </file>
@@ -10830,13 +10833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV373"/>
+  <dimension ref="A1:IW373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ32" sqref="AQ32"/>
+      <selection pane="bottomRight" activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -10865,12 +10868,12 @@
     <col min="28" max="40" width="8.6640625" style="40"/>
     <col min="41" max="47" width="12.1640625" style="17" customWidth="1"/>
     <col min="48" max="48" width="15.6640625" style="17" customWidth="1"/>
-    <col min="49" max="49" width="3.6640625" style="17" customWidth="1"/>
-    <col min="50" max="50" width="16.1640625" style="17" customWidth="1"/>
-    <col min="51" max="16384" width="8.6640625" style="17"/>
+    <col min="49" max="50" width="3.6640625" style="17" customWidth="1"/>
+    <col min="51" max="51" width="16.1640625" style="17" customWidth="1"/>
+    <col min="52" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="13" customHeight="1">
+    <row r="1" spans="1:60" ht="13" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -11012,38 +11015,41 @@
       <c r="AV1" s="40" t="s">
         <v>2252</v>
       </c>
-      <c r="AX1" s="66" t="s">
+      <c r="AX1" s="17" t="s">
+        <v>2421</v>
+      </c>
+      <c r="AY1" s="66" t="s">
         <v>2411</v>
       </c>
-      <c r="AY1" s="66" t="s">
+      <c r="AZ1" s="66" t="s">
         <v>2420</v>
       </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="BA1" s="40" t="s">
         <v>2412</v>
       </c>
-      <c r="BA1" s="40" t="s">
+      <c r="BB1" s="40" t="s">
         <v>2413</v>
       </c>
-      <c r="BB1" s="40" t="s">
+      <c r="BC1" s="40" t="s">
         <v>2414</v>
       </c>
-      <c r="BC1" s="40" t="s">
+      <c r="BD1" s="40" t="s">
         <v>2415</v>
       </c>
-      <c r="BD1" s="40" t="s">
+      <c r="BE1" s="40" t="s">
         <v>2416</v>
       </c>
-      <c r="BE1" s="40" t="s">
+      <c r="BF1" s="40" t="s">
         <v>2417</v>
       </c>
-      <c r="BF1" s="40" t="s">
+      <c r="BG1" s="40" t="s">
         <v>2418</v>
       </c>
-      <c r="BG1" s="40" t="s">
+      <c r="BH1" s="40" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="13" customHeight="1">
+    <row r="2" spans="1:60" ht="13" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>14</v>
       </c>
@@ -11081,10 +11087,10 @@
       <c r="AT2" s="16"/>
       <c r="AU2" s="16"/>
       <c r="AV2" s="16"/>
-      <c r="AX2" s="66"/>
       <c r="AY2" s="66"/>
-    </row>
-    <row r="3" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ2" s="66"/>
+    </row>
+    <row r="3" spans="1:60" ht="13" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>16</v>
       </c>
@@ -11124,10 +11130,10 @@
       <c r="AT3" s="16"/>
       <c r="AU3" s="16"/>
       <c r="AV3" s="16"/>
-      <c r="AX3" s="66"/>
       <c r="AY3" s="66"/>
-    </row>
-    <row r="4" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ3" s="66"/>
+    </row>
+    <row r="4" spans="1:60" ht="13" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
@@ -11189,10 +11195,10 @@
       <c r="AT4" s="16"/>
       <c r="AU4" s="16"/>
       <c r="AV4" s="16"/>
-      <c r="AX4" s="66"/>
       <c r="AY4" s="66"/>
-    </row>
-    <row r="5" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ4" s="66"/>
+    </row>
+    <row r="5" spans="1:60" ht="13" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
@@ -11256,10 +11262,10 @@
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
-      <c r="AX5" s="66"/>
       <c r="AY5" s="66"/>
-    </row>
-    <row r="6" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ5" s="66"/>
+    </row>
+    <row r="6" spans="1:60" ht="13" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>27</v>
       </c>
@@ -11295,10 +11301,10 @@
       <c r="AT6" s="16"/>
       <c r="AU6" s="16"/>
       <c r="AV6" s="16"/>
-      <c r="AX6" s="66"/>
       <c r="AY6" s="66"/>
-    </row>
-    <row r="7" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ6" s="66"/>
+    </row>
+    <row r="7" spans="1:60" ht="13" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>28</v>
       </c>
@@ -11364,10 +11370,10 @@
       <c r="AT7" s="16"/>
       <c r="AU7" s="16"/>
       <c r="AV7" s="16"/>
-      <c r="AX7" s="66"/>
       <c r="AY7" s="66"/>
-    </row>
-    <row r="8" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ7" s="66"/>
+    </row>
+    <row r="8" spans="1:60" ht="13" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
@@ -11435,10 +11441,10 @@
       <c r="AT8" s="16"/>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
-      <c r="AX8" s="66"/>
       <c r="AY8" s="66"/>
-    </row>
-    <row r="9" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ8" s="66"/>
+    </row>
+    <row r="9" spans="1:60" ht="13" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>37</v>
       </c>
@@ -11506,10 +11512,10 @@
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
       <c r="AV9" s="16"/>
-      <c r="AX9" s="66"/>
       <c r="AY9" s="66"/>
-    </row>
-    <row r="10" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ9" s="66"/>
+    </row>
+    <row r="10" spans="1:60" ht="13" customHeight="1">
       <c r="A10" s="40" t="s">
         <v>16</v>
       </c>
@@ -11549,10 +11555,10 @@
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
       <c r="AV10" s="16"/>
-      <c r="AX10" s="31"/>
       <c r="AY10" s="31"/>
-    </row>
-    <row r="11" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ10" s="31"/>
+    </row>
+    <row r="11" spans="1:60" ht="13" customHeight="1">
       <c r="A11" s="40" t="s">
         <v>37</v>
       </c>
@@ -11617,10 +11623,10 @@
       <c r="AT11" s="16"/>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
-      <c r="AX11" s="66"/>
       <c r="AY11" s="66"/>
-    </row>
-    <row r="12" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ11" s="66"/>
+    </row>
+    <row r="12" spans="1:60" ht="13" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>37</v>
       </c>
@@ -11685,10 +11691,10 @@
       <c r="AT12" s="16"/>
       <c r="AU12" s="16"/>
       <c r="AV12" s="16"/>
-      <c r="AX12" s="66"/>
       <c r="AY12" s="66"/>
-    </row>
-    <row r="13" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ12" s="66"/>
+    </row>
+    <row r="13" spans="1:60" ht="13" customHeight="1">
       <c r="A13" s="40" t="s">
         <v>37</v>
       </c>
@@ -11753,10 +11759,10 @@
       <c r="AT13" s="16"/>
       <c r="AU13" s="16"/>
       <c r="AV13" s="16"/>
-      <c r="AX13" s="66"/>
       <c r="AY13" s="66"/>
-    </row>
-    <row r="14" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ13" s="66"/>
+    </row>
+    <row r="14" spans="1:60" ht="13" customHeight="1">
       <c r="A14" s="40" t="s">
         <v>37</v>
       </c>
@@ -11821,10 +11827,10 @@
       <c r="AT14" s="16"/>
       <c r="AU14" s="16"/>
       <c r="AV14" s="16"/>
-      <c r="AX14" s="66"/>
       <c r="AY14" s="66"/>
-    </row>
-    <row r="15" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ14" s="66"/>
+    </row>
+    <row r="15" spans="1:60" ht="13" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>45</v>
       </c>
@@ -11890,10 +11896,10 @@
       <c r="AT15" s="16"/>
       <c r="AU15" s="16"/>
       <c r="AV15" s="16"/>
-      <c r="AX15" s="66"/>
       <c r="AY15" s="66"/>
-    </row>
-    <row r="16" spans="1:59" ht="13" customHeight="1">
+      <c r="AZ15" s="66"/>
+    </row>
+    <row r="16" spans="1:60" ht="13" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>45</v>
       </c>
@@ -11959,10 +11965,10 @@
       <c r="AT16" s="16"/>
       <c r="AU16" s="16"/>
       <c r="AV16" s="16"/>
-      <c r="AX16" s="66"/>
       <c r="AY16" s="66"/>
-    </row>
-    <row r="17" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ16" s="66"/>
+    </row>
+    <row r="17" spans="1:257" ht="13" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
@@ -11998,10 +12004,10 @@
       <c r="AT17" s="16"/>
       <c r="AU17" s="16"/>
       <c r="AV17" s="16"/>
-      <c r="AX17" s="66"/>
       <c r="AY17" s="66"/>
-    </row>
-    <row r="18" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ17" s="66"/>
+    </row>
+    <row r="18" spans="1:257" ht="13" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>14</v>
       </c>
@@ -12040,10 +12046,10 @@
       <c r="AT18" s="16"/>
       <c r="AU18" s="16"/>
       <c r="AV18" s="16"/>
-      <c r="AX18" s="66"/>
       <c r="AY18" s="66"/>
-    </row>
-    <row r="19" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ18" s="66"/>
+    </row>
+    <row r="19" spans="1:257" ht="13" customHeight="1">
       <c r="A19" s="40" t="s">
         <v>16</v>
       </c>
@@ -12081,10 +12087,10 @@
       <c r="AT19" s="16"/>
       <c r="AU19" s="16"/>
       <c r="AV19" s="16"/>
-      <c r="AX19" s="66"/>
       <c r="AY19" s="66"/>
-    </row>
-    <row r="20" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ19" s="66"/>
+    </row>
+    <row r="20" spans="1:257" ht="13" customHeight="1">
       <c r="A20" s="40" t="s">
         <v>28</v>
       </c>
@@ -12168,10 +12174,10 @@
       <c r="AT20" s="16"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
-      <c r="AX20" s="66"/>
       <c r="AY20" s="66"/>
-    </row>
-    <row r="21" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ20" s="66"/>
+    </row>
+    <row r="21" spans="1:257" ht="13" customHeight="1">
       <c r="A21" s="40" t="s">
         <v>20</v>
       </c>
@@ -12235,10 +12241,10 @@
       <c r="AT21" s="16"/>
       <c r="AU21" s="16"/>
       <c r="AV21" s="16"/>
-      <c r="AX21" s="66"/>
       <c r="AY21" s="66"/>
-    </row>
-    <row r="22" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ21" s="66"/>
+    </row>
+    <row r="22" spans="1:257" ht="13" customHeight="1">
       <c r="A22" s="40" t="s">
         <v>20</v>
       </c>
@@ -12302,10 +12308,10 @@
       <c r="AT22" s="16"/>
       <c r="AU22" s="16"/>
       <c r="AV22" s="16"/>
-      <c r="AX22" s="66"/>
       <c r="AY22" s="66"/>
-    </row>
-    <row r="23" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ22" s="66"/>
+    </row>
+    <row r="23" spans="1:257" ht="13" customHeight="1">
       <c r="A23" s="40" t="s">
         <v>32</v>
       </c>
@@ -12369,10 +12375,10 @@
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
-      <c r="AX23" s="66"/>
       <c r="AY23" s="66"/>
-    </row>
-    <row r="24" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ23" s="66"/>
+    </row>
+    <row r="24" spans="1:257" ht="13" customHeight="1">
       <c r="A24" s="40" t="s">
         <v>27</v>
       </c>
@@ -12408,10 +12414,10 @@
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
       <c r="AV24" s="16"/>
-      <c r="AX24" s="66"/>
       <c r="AY24" s="66"/>
-    </row>
-    <row r="25" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ24" s="66"/>
+    </row>
+    <row r="25" spans="1:257" ht="13" customHeight="1">
       <c r="A25" s="40" t="s">
         <v>16</v>
       </c>
@@ -12449,10 +12455,10 @@
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
       <c r="AV25" s="16"/>
-      <c r="AX25" s="66"/>
       <c r="AY25" s="66"/>
-    </row>
-    <row r="26" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ25" s="66"/>
+    </row>
+    <row r="26" spans="1:257" ht="13" customHeight="1">
       <c r="A26" s="40" t="s">
         <v>37</v>
       </c>
@@ -12518,10 +12524,10 @@
       <c r="AT26" s="16"/>
       <c r="AU26" s="16"/>
       <c r="AV26" s="16"/>
-      <c r="AX26" s="66"/>
       <c r="AY26" s="66"/>
-    </row>
-    <row r="27" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ26" s="66"/>
+    </row>
+    <row r="27" spans="1:257" ht="13" customHeight="1">
       <c r="A27" s="40" t="s">
         <v>28</v>
       </c>
@@ -12587,10 +12593,10 @@
       <c r="AT27" s="16"/>
       <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
-      <c r="AX27" s="66"/>
       <c r="AY27" s="66"/>
-    </row>
-    <row r="28" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ27" s="66"/>
+    </row>
+    <row r="28" spans="1:257" ht="13" customHeight="1">
       <c r="A28" s="40" t="s">
         <v>27</v>
       </c>
@@ -12626,10 +12632,10 @@
       <c r="AT28" s="16"/>
       <c r="AU28" s="16"/>
       <c r="AV28" s="16"/>
-      <c r="AX28" s="66"/>
       <c r="AY28" s="66"/>
-    </row>
-    <row r="29" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ28" s="66"/>
+    </row>
+    <row r="29" spans="1:257" ht="13" customHeight="1">
       <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
@@ -12721,10 +12727,10 @@
       <c r="AT29" s="16"/>
       <c r="AU29" s="16"/>
       <c r="AV29" s="16"/>
-      <c r="AX29" s="66"/>
       <c r="AY29" s="66"/>
-    </row>
-    <row r="30" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ29" s="66"/>
+    </row>
+    <row r="30" spans="1:257" ht="13" customHeight="1">
       <c r="A30" s="40" t="s">
         <v>16</v>
       </c>
@@ -12766,9 +12772,9 @@
       <c r="AU30" s="35"/>
       <c r="AV30" s="35"/>
       <c r="AW30" s="35"/>
-      <c r="AX30" s="66"/>
+      <c r="AX30" s="35"/>
       <c r="AY30" s="66"/>
-      <c r="AZ30" s="35"/>
+      <c r="AZ30" s="66"/>
       <c r="BA30" s="35"/>
       <c r="BB30" s="35"/>
       <c r="BC30" s="35"/>
@@ -12973,8 +12979,9 @@
       <c r="IT30" s="35"/>
       <c r="IU30" s="35"/>
       <c r="IV30" s="35"/>
-    </row>
-    <row r="31" spans="1:256" ht="13" customHeight="1">
+      <c r="IW30" s="35"/>
+    </row>
+    <row r="31" spans="1:257" ht="13" customHeight="1">
       <c r="A31" s="40" t="s">
         <v>71</v>
       </c>
@@ -13042,9 +13049,9 @@
       <c r="AU31" s="35"/>
       <c r="AV31" s="35"/>
       <c r="AW31" s="35"/>
-      <c r="AX31" s="66"/>
+      <c r="AX31" s="35"/>
       <c r="AY31" s="66"/>
-      <c r="AZ31" s="35"/>
+      <c r="AZ31" s="66"/>
       <c r="BA31" s="35"/>
       <c r="BB31" s="35"/>
       <c r="BC31" s="35"/>
@@ -13249,8 +13256,9 @@
       <c r="IT31" s="35"/>
       <c r="IU31" s="35"/>
       <c r="IV31" s="35"/>
-    </row>
-    <row r="32" spans="1:256" ht="13" customHeight="1">
+      <c r="IW31" s="35"/>
+    </row>
+    <row r="32" spans="1:257" ht="13" customHeight="1">
       <c r="A32" s="40" t="s">
         <v>28</v>
       </c>
@@ -13316,9 +13324,9 @@
       <c r="AU32" s="35"/>
       <c r="AV32" s="35"/>
       <c r="AW32" s="35"/>
-      <c r="AX32" s="66"/>
+      <c r="AX32" s="35"/>
       <c r="AY32" s="66"/>
-      <c r="AZ32" s="35"/>
+      <c r="AZ32" s="66"/>
       <c r="BA32" s="35"/>
       <c r="BB32" s="35"/>
       <c r="BC32" s="35"/>
@@ -13523,8 +13531,9 @@
       <c r="IT32" s="35"/>
       <c r="IU32" s="35"/>
       <c r="IV32" s="35"/>
-    </row>
-    <row r="33" spans="1:256" ht="13" customHeight="1">
+      <c r="IW32" s="35"/>
+    </row>
+    <row r="33" spans="1:257" ht="13" customHeight="1">
       <c r="A33" s="40" t="s">
         <v>27</v>
       </c>
@@ -13562,9 +13571,9 @@
       <c r="AU33" s="35"/>
       <c r="AV33" s="35"/>
       <c r="AW33" s="35"/>
-      <c r="AX33" s="66"/>
+      <c r="AX33" s="35"/>
       <c r="AY33" s="66"/>
-      <c r="AZ33" s="35"/>
+      <c r="AZ33" s="66"/>
       <c r="BA33" s="35"/>
       <c r="BB33" s="35"/>
       <c r="BC33" s="35"/>
@@ -13769,8 +13778,9 @@
       <c r="IT33" s="35"/>
       <c r="IU33" s="35"/>
       <c r="IV33" s="35"/>
-    </row>
-    <row r="34" spans="1:256" ht="13" customHeight="1">
+      <c r="IW33" s="35"/>
+    </row>
+    <row r="34" spans="1:257" ht="13" customHeight="1">
       <c r="A34" s="40" t="s">
         <v>71</v>
       </c>
@@ -13860,9 +13870,9 @@
       <c r="AU34" s="35"/>
       <c r="AV34" s="35"/>
       <c r="AW34" s="35"/>
-      <c r="AX34" s="66"/>
+      <c r="AX34" s="35"/>
       <c r="AY34" s="66"/>
-      <c r="AZ34" s="35"/>
+      <c r="AZ34" s="66"/>
       <c r="BA34" s="35"/>
       <c r="BB34" s="35"/>
       <c r="BC34" s="35"/>
@@ -14067,8 +14077,9 @@
       <c r="IT34" s="35"/>
       <c r="IU34" s="35"/>
       <c r="IV34" s="35"/>
-    </row>
-    <row r="35" spans="1:256" ht="13" customHeight="1">
+      <c r="IW34" s="35"/>
+    </row>
+    <row r="35" spans="1:257" ht="13" customHeight="1">
       <c r="A35" s="40" t="s">
         <v>14</v>
       </c>
@@ -14106,10 +14117,10 @@
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
       <c r="AV35" s="16"/>
-      <c r="AX35" s="31"/>
       <c r="AY35" s="31"/>
-    </row>
-    <row r="36" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ35" s="31"/>
+    </row>
+    <row r="36" spans="1:257" ht="13" customHeight="1">
       <c r="A36" s="40" t="s">
         <v>16</v>
       </c>
@@ -14147,10 +14158,10 @@
       <c r="AT36" s="16"/>
       <c r="AU36" s="16"/>
       <c r="AV36" s="16"/>
-      <c r="AX36" s="66"/>
       <c r="AY36" s="66"/>
-    </row>
-    <row r="37" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ36" s="66"/>
+    </row>
+    <row r="37" spans="1:257" ht="13" customHeight="1">
       <c r="A37" s="40" t="s">
         <v>20</v>
       </c>
@@ -14215,10 +14226,10 @@
       <c r="AT37" s="16"/>
       <c r="AU37" s="16"/>
       <c r="AV37" s="16"/>
-      <c r="AX37" s="31"/>
       <c r="AY37" s="31"/>
-    </row>
-    <row r="38" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ37" s="31"/>
+    </row>
+    <row r="38" spans="1:257" ht="13" customHeight="1">
       <c r="A38" s="40" t="s">
         <v>20</v>
       </c>
@@ -14283,10 +14294,10 @@
       <c r="AT38" s="16"/>
       <c r="AU38" s="16"/>
       <c r="AV38" s="16"/>
-      <c r="AX38" s="31"/>
       <c r="AY38" s="31"/>
-    </row>
-    <row r="39" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ38" s="31"/>
+    </row>
+    <row r="39" spans="1:257" ht="13" customHeight="1">
       <c r="A39" s="40" t="s">
         <v>37</v>
       </c>
@@ -14351,10 +14362,10 @@
       <c r="AT39" s="16"/>
       <c r="AU39" s="16"/>
       <c r="AV39" s="16"/>
-      <c r="AX39" s="31"/>
       <c r="AY39" s="31"/>
-    </row>
-    <row r="40" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ39" s="31"/>
+    </row>
+    <row r="40" spans="1:257" ht="13" customHeight="1">
       <c r="A40" s="40" t="s">
         <v>37</v>
       </c>
@@ -14419,10 +14430,10 @@
       <c r="AT40" s="16"/>
       <c r="AU40" s="16"/>
       <c r="AV40" s="16"/>
-      <c r="AX40" s="31"/>
       <c r="AY40" s="31"/>
-    </row>
-    <row r="41" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ40" s="31"/>
+    </row>
+    <row r="41" spans="1:257" ht="13" customHeight="1">
       <c r="A41" s="40" t="s">
         <v>37</v>
       </c>
@@ -14487,10 +14498,10 @@
       <c r="AT41" s="16"/>
       <c r="AU41" s="16"/>
       <c r="AV41" s="16"/>
-      <c r="AX41" s="31"/>
       <c r="AY41" s="31"/>
-    </row>
-    <row r="42" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ41" s="31"/>
+    </row>
+    <row r="42" spans="1:257" ht="13" customHeight="1">
       <c r="A42" s="40" t="s">
         <v>37</v>
       </c>
@@ -14555,10 +14566,10 @@
       <c r="AT42" s="16"/>
       <c r="AU42" s="16"/>
       <c r="AV42" s="16"/>
-      <c r="AX42" s="34"/>
-      <c r="AY42" s="67"/>
-    </row>
-    <row r="43" spans="1:256" ht="13" customHeight="1">
+      <c r="AY42" s="34"/>
+      <c r="AZ42" s="67"/>
+    </row>
+    <row r="43" spans="1:257" ht="13" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>45</v>
       </c>
@@ -14623,10 +14634,10 @@
       <c r="AT43" s="16"/>
       <c r="AU43" s="16"/>
       <c r="AV43" s="16"/>
-      <c r="AX43" s="66"/>
       <c r="AY43" s="66"/>
-    </row>
-    <row r="44" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ43" s="66"/>
+    </row>
+    <row r="44" spans="1:257" ht="13" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>45</v>
       </c>
@@ -14691,10 +14702,10 @@
       <c r="AT44" s="16"/>
       <c r="AU44" s="16"/>
       <c r="AV44" s="16"/>
-      <c r="AX44" s="66"/>
       <c r="AY44" s="66"/>
-    </row>
-    <row r="45" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ44" s="66"/>
+    </row>
+    <row r="45" spans="1:257" ht="13" customHeight="1">
       <c r="A45" s="40" t="s">
         <v>28</v>
       </c>
@@ -14778,10 +14789,10 @@
       <c r="AT45" s="16"/>
       <c r="AU45" s="16"/>
       <c r="AV45" s="16"/>
-      <c r="AX45" s="31"/>
       <c r="AY45" s="31"/>
-    </row>
-    <row r="46" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ45" s="31"/>
+    </row>
+    <row r="46" spans="1:257" ht="13" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>27</v>
       </c>
@@ -14817,10 +14828,10 @@
       <c r="AT46" s="16"/>
       <c r="AU46" s="16"/>
       <c r="AV46" s="16"/>
-      <c r="AX46" s="66"/>
       <c r="AY46" s="66"/>
-    </row>
-    <row r="47" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ46" s="66"/>
+    </row>
+    <row r="47" spans="1:257" ht="13" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>28</v>
       </c>
@@ -14932,10 +14943,10 @@
       <c r="AT47" s="16"/>
       <c r="AU47" s="16"/>
       <c r="AV47" s="16"/>
-      <c r="AX47" s="31"/>
       <c r="AY47" s="31"/>
-    </row>
-    <row r="48" spans="1:256" ht="13" customHeight="1">
+      <c r="AZ47" s="31"/>
+    </row>
+    <row r="48" spans="1:257" ht="13" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>28</v>
       </c>
@@ -14999,10 +15010,10 @@
       <c r="AT48" s="16"/>
       <c r="AU48" s="16"/>
       <c r="AV48" s="16"/>
-      <c r="AX48" s="31"/>
       <c r="AY48" s="31"/>
-    </row>
-    <row r="49" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ48" s="31"/>
+    </row>
+    <row r="49" spans="1:52" ht="13" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>93</v>
       </c>
@@ -15068,10 +15079,10 @@
       <c r="AT49" s="16"/>
       <c r="AU49" s="16"/>
       <c r="AV49" s="16"/>
-      <c r="AX49" s="31"/>
       <c r="AY49" s="31"/>
-    </row>
-    <row r="50" spans="1:51" s="22" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ49" s="31"/>
+    </row>
+    <row r="50" spans="1:52" s="22" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="40" t="s">
         <v>165</v>
       </c>
@@ -15119,10 +15130,10 @@
       <c r="AD50" s="40"/>
       <c r="AE50" s="40"/>
       <c r="AF50" s="40"/>
-      <c r="AX50" s="31"/>
       <c r="AY50" s="31"/>
-    </row>
-    <row r="51" spans="1:51" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ50" s="31"/>
+    </row>
+    <row r="51" spans="1:52" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A51" s="40" t="s">
         <v>20</v>
       </c>
@@ -15189,10 +15200,10 @@
       <c r="AF51" s="36" t="s">
         <v>1176</v>
       </c>
-      <c r="AX51" s="31"/>
       <c r="AY51" s="31"/>
-    </row>
-    <row r="52" spans="1:51" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ51" s="31"/>
+    </row>
+    <row r="52" spans="1:52" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A52" s="40" t="s">
         <v>20</v>
       </c>
@@ -15240,10 +15251,10 @@
       <c r="AD52" s="40"/>
       <c r="AE52" s="40"/>
       <c r="AF52" s="40"/>
-      <c r="AX52" s="34"/>
-      <c r="AY52" s="67"/>
-    </row>
-    <row r="53" spans="1:51" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AY52" s="34"/>
+      <c r="AZ52" s="67"/>
+    </row>
+    <row r="53" spans="1:52" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="40" t="s">
         <v>28</v>
       </c>
@@ -15291,10 +15302,10 @@
       <c r="AD53" s="40"/>
       <c r="AE53" s="40"/>
       <c r="AF53" s="40"/>
-      <c r="AX53" s="66"/>
       <c r="AY53" s="66"/>
-    </row>
-    <row r="54" spans="1:51" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ53" s="66"/>
+    </row>
+    <row r="54" spans="1:52" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A54" s="40" t="s">
         <v>14</v>
       </c>
@@ -15321,10 +15332,10 @@
       <c r="AD54" s="40"/>
       <c r="AE54" s="40"/>
       <c r="AF54" s="40"/>
-      <c r="AX54" s="66"/>
       <c r="AY54" s="66"/>
-    </row>
-    <row r="55" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ54" s="66"/>
+    </row>
+    <row r="55" spans="1:52" ht="13" customHeight="1">
       <c r="A55" s="40" t="s">
         <v>101</v>
       </c>
@@ -15416,10 +15427,10 @@
       <c r="AT55" s="16"/>
       <c r="AU55" s="16"/>
       <c r="AV55" s="16"/>
-      <c r="AX55" s="66"/>
       <c r="AY55" s="66"/>
-    </row>
-    <row r="56" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ55" s="66"/>
+    </row>
+    <row r="56" spans="1:52" ht="13" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>37</v>
       </c>
@@ -15531,10 +15542,10 @@
       <c r="AT56" s="16"/>
       <c r="AU56" s="16"/>
       <c r="AV56" s="16"/>
-      <c r="AX56" s="68"/>
       <c r="AY56" s="68"/>
-    </row>
-    <row r="57" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ56" s="68"/>
+    </row>
+    <row r="57" spans="1:52" ht="13" customHeight="1">
       <c r="A57" s="40" t="s">
         <v>37</v>
       </c>
@@ -15624,10 +15635,10 @@
       <c r="AT57" s="16"/>
       <c r="AU57" s="16"/>
       <c r="AV57" s="16"/>
-      <c r="AX57" s="68"/>
       <c r="AY57" s="68"/>
-    </row>
-    <row r="58" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ57" s="68"/>
+    </row>
+    <row r="58" spans="1:52" ht="13" customHeight="1">
       <c r="A58" s="40" t="s">
         <v>14</v>
       </c>
@@ -15665,10 +15676,10 @@
       <c r="AT58" s="16"/>
       <c r="AU58" s="16"/>
       <c r="AV58" s="16"/>
-      <c r="AX58" s="68"/>
       <c r="AY58" s="68"/>
-    </row>
-    <row r="59" spans="1:51" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ58" s="68"/>
+    </row>
+    <row r="59" spans="1:52" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A59" s="47" t="s">
         <v>20</v>
       </c>
@@ -15760,10 +15771,10 @@
       <c r="AT59" s="48"/>
       <c r="AU59" s="48"/>
       <c r="AV59" s="48"/>
-      <c r="AX59" s="68"/>
       <c r="AY59" s="68"/>
-    </row>
-    <row r="60" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ59" s="68"/>
+    </row>
+    <row r="60" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A60" s="53" t="s">
         <v>16</v>
       </c>
@@ -15776,10 +15787,10 @@
       <c r="J60" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="AX60" s="68"/>
       <c r="AY60" s="68"/>
-    </row>
-    <row r="61" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ60" s="68"/>
+    </row>
+    <row r="61" spans="1:52" ht="13" customHeight="1">
       <c r="A61" s="40" t="s">
         <v>20</v>
       </c>
@@ -15845,10 +15856,10 @@
       <c r="AT61" s="16"/>
       <c r="AU61" s="16"/>
       <c r="AV61" s="16"/>
-      <c r="AX61" s="68"/>
       <c r="AY61" s="68"/>
-    </row>
-    <row r="62" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ61" s="68"/>
+    </row>
+    <row r="62" spans="1:52" ht="13" customHeight="1">
       <c r="A62" s="40" t="s">
         <v>20</v>
       </c>
@@ -15914,10 +15925,10 @@
       <c r="AT62" s="16"/>
       <c r="AU62" s="16"/>
       <c r="AV62" s="16"/>
-      <c r="AX62" s="68"/>
       <c r="AY62" s="68"/>
-    </row>
-    <row r="63" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ62" s="68"/>
+    </row>
+    <row r="63" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A63" s="64" t="s">
         <v>2284</v>
       </c>
@@ -15947,10 +15958,10 @@
       <c r="AQ63" s="53"/>
       <c r="AR63" s="53"/>
       <c r="AS63" s="53"/>
-      <c r="AX63" s="68"/>
       <c r="AY63" s="68"/>
-    </row>
-    <row r="64" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ63" s="68"/>
+    </row>
+    <row r="64" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A64" s="53" t="s">
         <v>118</v>
       </c>
@@ -15986,10 +15997,10 @@
       <c r="AQ64" s="53"/>
       <c r="AR64" s="53"/>
       <c r="AS64" s="53"/>
-      <c r="AX64" s="68"/>
       <c r="AY64" s="68"/>
-    </row>
-    <row r="65" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ64" s="68"/>
+    </row>
+    <row r="65" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A65" s="53" t="s">
         <v>14</v>
       </c>
@@ -16015,20 +16026,20 @@
       <c r="AQ65" s="53"/>
       <c r="AR65" s="55"/>
       <c r="AS65" s="53"/>
-      <c r="AX65" s="68"/>
       <c r="AY65" s="68"/>
-    </row>
-    <row r="66" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ65" s="68"/>
+    </row>
+    <row r="66" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A66" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B66" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="AX66" s="68"/>
       <c r="AY66" s="68"/>
-    </row>
-    <row r="67" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ66" s="68"/>
+    </row>
+    <row r="67" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="53" t="s">
         <v>14</v>
       </c>
@@ -16038,10 +16049,10 @@
       <c r="L67" s="53" t="s">
         <v>2400</v>
       </c>
-      <c r="AX67" s="68"/>
       <c r="AY67" s="68"/>
-    </row>
-    <row r="68" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ67" s="68"/>
+    </row>
+    <row r="68" spans="1:52" ht="13" customHeight="1">
       <c r="A68" s="40" t="s">
         <v>14</v>
       </c>
@@ -16079,10 +16090,10 @@
       <c r="AT68" s="16"/>
       <c r="AU68" s="16"/>
       <c r="AV68" s="16"/>
-      <c r="AX68" s="68"/>
       <c r="AY68" s="68"/>
-    </row>
-    <row r="69" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ68" s="68"/>
+    </row>
+    <row r="69" spans="1:52" ht="13" customHeight="1">
       <c r="A69" s="40" t="s">
         <v>14</v>
       </c>
@@ -16120,10 +16131,10 @@
       <c r="AT69" s="16"/>
       <c r="AU69" s="16"/>
       <c r="AV69" s="16"/>
-      <c r="AX69" s="68"/>
       <c r="AY69" s="68"/>
-    </row>
-    <row r="70" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ69" s="68"/>
+    </row>
+    <row r="70" spans="1:52" ht="13" customHeight="1">
       <c r="A70" s="40" t="s">
         <v>14</v>
       </c>
@@ -16161,10 +16172,10 @@
       <c r="AT70" s="16"/>
       <c r="AU70" s="16"/>
       <c r="AV70" s="16"/>
-      <c r="AX70" s="68"/>
       <c r="AY70" s="68"/>
-    </row>
-    <row r="71" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ70" s="68"/>
+    </row>
+    <row r="71" spans="1:52" ht="13" customHeight="1">
       <c r="A71" s="40" t="s">
         <v>14</v>
       </c>
@@ -16202,10 +16213,10 @@
       <c r="AT71" s="16"/>
       <c r="AU71" s="16"/>
       <c r="AV71" s="16"/>
-      <c r="AX71" s="68"/>
       <c r="AY71" s="68"/>
-    </row>
-    <row r="72" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ71" s="68"/>
+    </row>
+    <row r="72" spans="1:52" ht="13" customHeight="1">
       <c r="A72" s="40" t="s">
         <v>45</v>
       </c>
@@ -16291,10 +16302,10 @@
       <c r="AT72" s="16"/>
       <c r="AU72" s="16"/>
       <c r="AV72" s="16"/>
-      <c r="AX72" s="68"/>
       <c r="AY72" s="68"/>
-    </row>
-    <row r="73" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ72" s="68"/>
+    </row>
+    <row r="73" spans="1:52" ht="13" customHeight="1">
       <c r="A73" s="40" t="s">
         <v>16</v>
       </c>
@@ -16359,10 +16370,10 @@
       <c r="AT73" s="16"/>
       <c r="AU73" s="16"/>
       <c r="AV73" s="16"/>
-      <c r="AX73" s="68"/>
       <c r="AY73" s="68"/>
-    </row>
-    <row r="74" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ73" s="68"/>
+    </row>
+    <row r="74" spans="1:52" ht="13" customHeight="1">
       <c r="A74" s="40" t="s">
         <v>20</v>
       </c>
@@ -16427,10 +16438,10 @@
       <c r="AT74" s="16"/>
       <c r="AU74" s="16"/>
       <c r="AV74" s="16"/>
-      <c r="AX74" s="68"/>
       <c r="AY74" s="68"/>
-    </row>
-    <row r="75" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ74" s="68"/>
+    </row>
+    <row r="75" spans="1:52" ht="13" customHeight="1">
       <c r="A75" s="40" t="s">
         <v>20</v>
       </c>
@@ -16495,10 +16506,10 @@
       <c r="AT75" s="16"/>
       <c r="AU75" s="16"/>
       <c r="AV75" s="16"/>
-      <c r="AX75" s="68"/>
       <c r="AY75" s="68"/>
-    </row>
-    <row r="76" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ75" s="68"/>
+    </row>
+    <row r="76" spans="1:52" ht="13" customHeight="1">
       <c r="A76" s="40" t="s">
         <v>20</v>
       </c>
@@ -16563,10 +16574,10 @@
       <c r="AT76" s="16"/>
       <c r="AU76" s="16"/>
       <c r="AV76" s="16"/>
-      <c r="AX76" s="68"/>
       <c r="AY76" s="68"/>
-    </row>
-    <row r="77" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ76" s="68"/>
+    </row>
+    <row r="77" spans="1:52" ht="13" customHeight="1">
       <c r="A77" s="40" t="s">
         <v>45</v>
       </c>
@@ -16651,10 +16662,10 @@
       <c r="AT77" s="16"/>
       <c r="AU77" s="16"/>
       <c r="AV77" s="16"/>
-      <c r="AX77" s="68"/>
       <c r="AY77" s="68"/>
-    </row>
-    <row r="78" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ77" s="68"/>
+    </row>
+    <row r="78" spans="1:52" ht="13" customHeight="1">
       <c r="A78" s="40" t="s">
         <v>27</v>
       </c>
@@ -16691,10 +16702,10 @@
       <c r="AT78" s="16"/>
       <c r="AU78" s="16"/>
       <c r="AV78" s="16"/>
-      <c r="AX78" s="68"/>
       <c r="AY78" s="68"/>
-    </row>
-    <row r="79" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ78" s="68"/>
+    </row>
+    <row r="79" spans="1:52" ht="13" customHeight="1">
       <c r="A79" s="40" t="s">
         <v>133</v>
       </c>
@@ -16761,10 +16772,10 @@
       <c r="AT79" s="16"/>
       <c r="AU79" s="16"/>
       <c r="AV79" s="16"/>
-      <c r="AX79" s="68"/>
       <c r="AY79" s="68"/>
-    </row>
-    <row r="80" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ79" s="68"/>
+    </row>
+    <row r="80" spans="1:52" ht="13" customHeight="1">
       <c r="A80" s="40" t="s">
         <v>135</v>
       </c>
@@ -16856,10 +16867,10 @@
       <c r="AT80" s="16"/>
       <c r="AU80" s="16"/>
       <c r="AV80" s="16"/>
-      <c r="AX80" s="68"/>
       <c r="AY80" s="68"/>
-    </row>
-    <row r="81" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ80" s="68"/>
+    </row>
+    <row r="81" spans="1:52" ht="13" customHeight="1">
       <c r="A81" s="40" t="s">
         <v>138</v>
       </c>
@@ -16925,10 +16936,10 @@
       <c r="AT81" s="16"/>
       <c r="AU81" s="16"/>
       <c r="AV81" s="16"/>
-      <c r="AX81" s="68"/>
       <c r="AY81" s="68"/>
-    </row>
-    <row r="82" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ81" s="68"/>
+    </row>
+    <row r="82" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="53" t="s">
         <v>16</v>
       </c>
@@ -16956,10 +16967,10 @@
       <c r="AQ82" s="53"/>
       <c r="AR82" s="53"/>
       <c r="AS82" s="53"/>
-      <c r="AX82" s="68"/>
       <c r="AY82" s="68"/>
-    </row>
-    <row r="83" spans="1:51" s="15" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ82" s="68"/>
+    </row>
+    <row r="83" spans="1:52" s="15" customFormat="1" ht="13" customHeight="1">
       <c r="A83" s="57" t="s">
         <v>20</v>
       </c>
@@ -16986,10 +16997,10 @@
       <c r="AQ83" s="57"/>
       <c r="AR83" s="57"/>
       <c r="AS83" s="57"/>
-      <c r="AX83" s="68"/>
       <c r="AY83" s="68"/>
-    </row>
-    <row r="84" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ83" s="68"/>
+    </row>
+    <row r="84" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A84" s="64" t="s">
         <v>2284</v>
       </c>
@@ -17019,10 +17030,10 @@
       <c r="AQ84" s="53"/>
       <c r="AR84" s="53"/>
       <c r="AS84" s="53"/>
-      <c r="AX84" s="68"/>
       <c r="AY84" s="68"/>
-    </row>
-    <row r="85" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ84" s="68"/>
+    </row>
+    <row r="85" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A85" s="53" t="s">
         <v>118</v>
       </c>
@@ -17056,10 +17067,10 @@
       <c r="AQ85" s="53"/>
       <c r="AR85" s="53"/>
       <c r="AS85" s="53"/>
-      <c r="AX85" s="68"/>
       <c r="AY85" s="68"/>
-    </row>
-    <row r="86" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ85" s="68"/>
+    </row>
+    <row r="86" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A86" s="53" t="s">
         <v>14</v>
       </c>
@@ -17084,10 +17095,10 @@
       <c r="AQ86" s="53"/>
       <c r="AR86" s="53"/>
       <c r="AS86" s="53"/>
-      <c r="AX86" s="68"/>
       <c r="AY86" s="68"/>
-    </row>
-    <row r="87" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ86" s="68"/>
+    </row>
+    <row r="87" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A87" s="53" t="s">
         <v>27</v>
       </c>
@@ -17111,10 +17122,10 @@
       <c r="AQ87" s="53"/>
       <c r="AR87" s="53"/>
       <c r="AS87" s="53"/>
-      <c r="AX87" s="68"/>
       <c r="AY87" s="68"/>
-    </row>
-    <row r="88" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ87" s="68"/>
+    </row>
+    <row r="88" spans="1:52" ht="13" customHeight="1">
       <c r="A88" s="40" t="s">
         <v>14</v>
       </c>
@@ -17154,10 +17165,10 @@
       <c r="AT88" s="16"/>
       <c r="AU88" s="16"/>
       <c r="AV88" s="16"/>
-      <c r="AX88" s="66"/>
       <c r="AY88" s="66"/>
-    </row>
-    <row r="89" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ88" s="66"/>
+    </row>
+    <row r="89" spans="1:52" ht="13" customHeight="1">
       <c r="A89" s="40" t="s">
         <v>14</v>
       </c>
@@ -17197,10 +17208,10 @@
       <c r="AT89" s="16"/>
       <c r="AU89" s="16"/>
       <c r="AV89" s="16"/>
-      <c r="AX89" s="66"/>
       <c r="AY89" s="66"/>
-    </row>
-    <row r="90" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ89" s="66"/>
+    </row>
+    <row r="90" spans="1:52" ht="13" customHeight="1">
       <c r="A90" s="40" t="s">
         <v>14</v>
       </c>
@@ -17240,10 +17251,10 @@
       <c r="AT90" s="16"/>
       <c r="AU90" s="16"/>
       <c r="AV90" s="16"/>
-      <c r="AX90" s="66"/>
       <c r="AY90" s="66"/>
-    </row>
-    <row r="91" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ90" s="66"/>
+    </row>
+    <row r="91" spans="1:52" ht="13" customHeight="1">
       <c r="A91" s="40" t="s">
         <v>28</v>
       </c>
@@ -17311,10 +17322,10 @@
       <c r="AT91" s="16"/>
       <c r="AU91" s="16"/>
       <c r="AV91" s="16"/>
-      <c r="AX91" s="66"/>
       <c r="AY91" s="66"/>
-    </row>
-    <row r="92" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ91" s="66"/>
+    </row>
+    <row r="92" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A92" s="53" t="s">
         <v>16</v>
       </c>
@@ -17342,10 +17353,10 @@
       <c r="AQ92" s="53"/>
       <c r="AR92" s="53"/>
       <c r="AS92" s="53"/>
-      <c r="AX92" s="66"/>
       <c r="AY92" s="66"/>
-    </row>
-    <row r="93" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ92" s="66"/>
+    </row>
+    <row r="93" spans="1:52" ht="13" customHeight="1">
       <c r="A93" s="40" t="s">
         <v>20</v>
       </c>
@@ -17449,10 +17460,10 @@
       <c r="AT93" s="16"/>
       <c r="AU93" s="16"/>
       <c r="AV93" s="16"/>
-      <c r="AX93" s="66"/>
       <c r="AY93" s="66"/>
-    </row>
-    <row r="94" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ93" s="66"/>
+    </row>
+    <row r="94" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A94" s="64" t="s">
         <v>2284</v>
       </c>
@@ -17482,10 +17493,10 @@
       <c r="AQ94" s="53"/>
       <c r="AR94" s="53"/>
       <c r="AS94" s="53"/>
-      <c r="AX94" s="66"/>
       <c r="AY94" s="66"/>
-    </row>
-    <row r="95" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ94" s="66"/>
+    </row>
+    <row r="95" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A95" s="53" t="s">
         <v>118</v>
       </c>
@@ -17521,10 +17532,10 @@
       <c r="AQ95" s="53"/>
       <c r="AR95" s="53"/>
       <c r="AS95" s="53"/>
-      <c r="AX95" s="66"/>
       <c r="AY95" s="66"/>
-    </row>
-    <row r="96" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ95" s="66"/>
+    </row>
+    <row r="96" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A96" s="53" t="s">
         <v>14</v>
       </c>
@@ -17541,10 +17552,10 @@
       <c r="AQ96" s="53"/>
       <c r="AR96" s="53"/>
       <c r="AS96" s="53"/>
-      <c r="AX96" s="66"/>
       <c r="AY96" s="66"/>
-    </row>
-    <row r="97" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ96" s="66"/>
+    </row>
+    <row r="97" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A97" s="53" t="s">
         <v>27</v>
       </c>
@@ -17568,10 +17579,10 @@
       <c r="AQ97" s="53"/>
       <c r="AR97" s="53"/>
       <c r="AS97" s="53"/>
-      <c r="AX97" s="66"/>
       <c r="AY97" s="66"/>
-    </row>
-    <row r="98" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ97" s="66"/>
+    </row>
+    <row r="98" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A98" s="53" t="s">
         <v>20</v>
       </c>
@@ -17594,10 +17605,10 @@
       <c r="AQ98" s="53"/>
       <c r="AR98" s="53"/>
       <c r="AS98" s="53"/>
-      <c r="AX98" s="66"/>
       <c r="AY98" s="66"/>
-    </row>
-    <row r="99" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ98" s="66"/>
+    </row>
+    <row r="99" spans="1:52" ht="13" customHeight="1">
       <c r="A99" s="40" t="s">
         <v>14</v>
       </c>
@@ -17637,10 +17648,10 @@
       <c r="AT99" s="16"/>
       <c r="AU99" s="16"/>
       <c r="AV99" s="16"/>
-      <c r="AX99" s="66"/>
       <c r="AY99" s="66"/>
-    </row>
-    <row r="100" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ99" s="66"/>
+    </row>
+    <row r="100" spans="1:52" ht="13" customHeight="1">
       <c r="A100" s="40" t="s">
         <v>14</v>
       </c>
@@ -17680,10 +17691,10 @@
       <c r="AT100" s="16"/>
       <c r="AU100" s="16"/>
       <c r="AV100" s="16"/>
-      <c r="AX100" s="66"/>
       <c r="AY100" s="66"/>
-    </row>
-    <row r="101" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ100" s="66"/>
+    </row>
+    <row r="101" spans="1:52" ht="13" customHeight="1">
       <c r="A101" s="40" t="s">
         <v>14</v>
       </c>
@@ -17723,10 +17734,10 @@
       <c r="AT101" s="16"/>
       <c r="AU101" s="16"/>
       <c r="AV101" s="16"/>
-      <c r="AX101" s="31"/>
       <c r="AY101" s="31"/>
-    </row>
-    <row r="102" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ101" s="31"/>
+    </row>
+    <row r="102" spans="1:52" ht="13" customHeight="1">
       <c r="A102" s="40" t="s">
         <v>28</v>
       </c>
@@ -17794,10 +17805,10 @@
       <c r="AT102" s="16"/>
       <c r="AU102" s="16"/>
       <c r="AV102" s="16"/>
-      <c r="AX102" s="66"/>
       <c r="AY102" s="66"/>
-    </row>
-    <row r="103" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ102" s="66"/>
+    </row>
+    <row r="103" spans="1:52" ht="13" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>165</v>
       </c>
@@ -17863,10 +17874,10 @@
       <c r="AT103" s="16"/>
       <c r="AU103" s="16"/>
       <c r="AV103" s="16"/>
-      <c r="AX103" s="31"/>
       <c r="AY103" s="31"/>
-    </row>
-    <row r="104" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ103" s="31"/>
+    </row>
+    <row r="104" spans="1:52" ht="13" customHeight="1">
       <c r="A104" s="40" t="s">
         <v>167</v>
       </c>
@@ -17932,10 +17943,10 @@
       <c r="AT104" s="16"/>
       <c r="AU104" s="16"/>
       <c r="AV104" s="16"/>
-      <c r="AX104" s="31"/>
       <c r="AY104" s="31"/>
-    </row>
-    <row r="105" spans="1:51" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ104" s="31"/>
+    </row>
+    <row r="105" spans="1:52" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="47" t="s">
         <v>20</v>
       </c>
@@ -18009,10 +18020,10 @@
       <c r="AT105" s="48"/>
       <c r="AU105" s="48"/>
       <c r="AV105" s="48"/>
-      <c r="AX105" s="31"/>
       <c r="AY105" s="31"/>
-    </row>
-    <row r="106" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ105" s="31"/>
+    </row>
+    <row r="106" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A106" s="40" t="s">
         <v>215</v>
       </c>
@@ -18086,10 +18097,10 @@
       <c r="AT106" s="10"/>
       <c r="AU106" s="10"/>
       <c r="AV106" s="10"/>
-      <c r="AX106" s="31"/>
       <c r="AY106" s="31"/>
-    </row>
-    <row r="107" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ106" s="31"/>
+    </row>
+    <row r="107" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A107" s="40" t="s">
         <v>45</v>
       </c>
@@ -18183,10 +18194,10 @@
       <c r="AT107" s="10"/>
       <c r="AU107" s="10"/>
       <c r="AV107" s="10"/>
-      <c r="AX107" s="31"/>
       <c r="AY107" s="31"/>
-    </row>
-    <row r="108" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ107" s="31"/>
+    </row>
+    <row r="108" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A108" s="40" t="s">
         <v>215</v>
       </c>
@@ -18260,10 +18271,10 @@
       <c r="AT108" s="10"/>
       <c r="AU108" s="10"/>
       <c r="AV108" s="10"/>
-      <c r="AX108" s="31"/>
       <c r="AY108" s="31"/>
-    </row>
-    <row r="109" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ108" s="31"/>
+    </row>
+    <row r="109" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A109" s="40" t="s">
         <v>45</v>
       </c>
@@ -18357,10 +18368,10 @@
       <c r="AT109" s="10"/>
       <c r="AU109" s="10"/>
       <c r="AV109" s="10"/>
-      <c r="AX109" s="34"/>
-      <c r="AY109" s="67"/>
-    </row>
-    <row r="110" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AY109" s="34"/>
+      <c r="AZ109" s="67"/>
+    </row>
+    <row r="110" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A110" s="40" t="s">
         <v>45</v>
       </c>
@@ -18454,10 +18465,10 @@
       <c r="AT110" s="10"/>
       <c r="AU110" s="10"/>
       <c r="AV110" s="10"/>
-      <c r="AX110" s="31"/>
       <c r="AY110" s="31"/>
-    </row>
-    <row r="111" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ110" s="31"/>
+    </row>
+    <row r="111" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A111" s="40" t="s">
         <v>20</v>
       </c>
@@ -18531,10 +18542,10 @@
       <c r="AT111" s="10"/>
       <c r="AU111" s="10"/>
       <c r="AV111" s="10"/>
-      <c r="AX111" s="31"/>
       <c r="AY111" s="31"/>
-    </row>
-    <row r="112" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ111" s="31"/>
+    </row>
+    <row r="112" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A112" s="40" t="s">
         <v>215</v>
       </c>
@@ -18608,10 +18619,10 @@
       <c r="AT112" s="10"/>
       <c r="AU112" s="10"/>
       <c r="AV112" s="10"/>
-      <c r="AX112" s="66"/>
       <c r="AY112" s="66"/>
-    </row>
-    <row r="113" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ112" s="66"/>
+    </row>
+    <row r="113" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A113" s="40" t="s">
         <v>45</v>
       </c>
@@ -18705,10 +18716,10 @@
       <c r="AT113" s="10"/>
       <c r="AU113" s="10"/>
       <c r="AV113" s="10"/>
-      <c r="AX113" s="66"/>
       <c r="AY113" s="66"/>
-    </row>
-    <row r="114" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ113" s="66"/>
+    </row>
+    <row r="114" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A114" s="40" t="s">
         <v>45</v>
       </c>
@@ -18802,10 +18813,10 @@
       <c r="AT114" s="10"/>
       <c r="AU114" s="10"/>
       <c r="AV114" s="10"/>
-      <c r="AX114" s="66"/>
       <c r="AY114" s="66"/>
-    </row>
-    <row r="115" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ114" s="66"/>
+    </row>
+    <row r="115" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A115" s="40" t="s">
         <v>20</v>
       </c>
@@ -18879,10 +18890,10 @@
       <c r="AT115" s="10"/>
       <c r="AU115" s="10"/>
       <c r="AV115" s="10"/>
-      <c r="AX115" s="66"/>
       <c r="AY115" s="66"/>
-    </row>
-    <row r="116" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ115" s="66"/>
+    </row>
+    <row r="116" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A116" s="40" t="s">
         <v>215</v>
       </c>
@@ -18974,10 +18985,10 @@
       <c r="AT116" s="10"/>
       <c r="AU116" s="10"/>
       <c r="AV116" s="10"/>
-      <c r="AX116" s="66"/>
       <c r="AY116" s="66"/>
-    </row>
-    <row r="117" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ116" s="66"/>
+    </row>
+    <row r="117" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A117" s="40" t="s">
         <v>45</v>
       </c>
@@ -19071,10 +19082,10 @@
       <c r="AT117" s="10"/>
       <c r="AU117" s="10"/>
       <c r="AV117" s="10"/>
-      <c r="AX117" s="66"/>
       <c r="AY117" s="66"/>
-    </row>
-    <row r="118" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ117" s="66"/>
+    </row>
+    <row r="118" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A118" s="40" t="s">
         <v>45</v>
       </c>
@@ -19168,10 +19179,10 @@
       <c r="AT118" s="10"/>
       <c r="AU118" s="10"/>
       <c r="AV118" s="10"/>
-      <c r="AX118" s="66"/>
       <c r="AY118" s="66"/>
-    </row>
-    <row r="119" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ118" s="66"/>
+    </row>
+    <row r="119" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A119" s="40" t="s">
         <v>45</v>
       </c>
@@ -19265,10 +19276,10 @@
       <c r="AT119" s="10"/>
       <c r="AU119" s="10"/>
       <c r="AV119" s="10"/>
-      <c r="AX119" s="66"/>
       <c r="AY119" s="66"/>
-    </row>
-    <row r="120" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ119" s="66"/>
+    </row>
+    <row r="120" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A120" s="40" t="s">
         <v>20</v>
       </c>
@@ -19342,10 +19353,10 @@
       <c r="AT120" s="10"/>
       <c r="AU120" s="10"/>
       <c r="AV120" s="10"/>
-      <c r="AX120" s="66"/>
       <c r="AY120" s="66"/>
-    </row>
-    <row r="121" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ120" s="66"/>
+    </row>
+    <row r="121" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>14</v>
       </c>
@@ -19399,10 +19410,10 @@
       <c r="AT121" s="10"/>
       <c r="AU121" s="10"/>
       <c r="AV121" s="10"/>
-      <c r="AX121" s="66"/>
       <c r="AY121" s="66"/>
-    </row>
-    <row r="122" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ121" s="66"/>
+    </row>
+    <row r="122" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A122" s="40" t="s">
         <v>14</v>
       </c>
@@ -19456,10 +19467,10 @@
       <c r="AT122" s="10"/>
       <c r="AU122" s="10"/>
       <c r="AV122" s="10"/>
-      <c r="AX122" s="66"/>
       <c r="AY122" s="66"/>
-    </row>
-    <row r="123" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ122" s="66"/>
+    </row>
+    <row r="123" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A123" s="40" t="s">
         <v>20</v>
       </c>
@@ -19533,10 +19544,10 @@
       <c r="AT123" s="10"/>
       <c r="AU123" s="10"/>
       <c r="AV123" s="10"/>
-      <c r="AX123" s="66"/>
       <c r="AY123" s="66"/>
-    </row>
-    <row r="124" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ123" s="66"/>
+    </row>
+    <row r="124" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A124" s="40" t="s">
         <v>28</v>
       </c>
@@ -19630,10 +19641,10 @@
       <c r="AT124" s="10"/>
       <c r="AU124" s="10"/>
       <c r="AV124" s="10"/>
-      <c r="AX124" s="66"/>
       <c r="AY124" s="66"/>
-    </row>
-    <row r="125" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ124" s="66"/>
+    </row>
+    <row r="125" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A125" s="53" t="s">
         <v>16</v>
       </c>
@@ -19661,10 +19672,10 @@
       <c r="AQ125" s="53"/>
       <c r="AR125" s="53"/>
       <c r="AS125" s="53"/>
-      <c r="AX125" s="66"/>
       <c r="AY125" s="66"/>
-    </row>
-    <row r="126" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ125" s="66"/>
+    </row>
+    <row r="126" spans="1:52" ht="13" customHeight="1">
       <c r="A126" s="40" t="s">
         <v>20</v>
       </c>
@@ -19768,10 +19779,10 @@
       <c r="AT126" s="16"/>
       <c r="AU126" s="16"/>
       <c r="AV126" s="16"/>
-      <c r="AX126" s="66"/>
       <c r="AY126" s="66"/>
-    </row>
-    <row r="127" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ126" s="66"/>
+    </row>
+    <row r="127" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A127" s="64" t="s">
         <v>2284</v>
       </c>
@@ -19801,10 +19812,10 @@
       <c r="AQ127" s="53"/>
       <c r="AR127" s="53"/>
       <c r="AS127" s="53"/>
-      <c r="AX127" s="66"/>
       <c r="AY127" s="66"/>
-    </row>
-    <row r="128" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ127" s="66"/>
+    </row>
+    <row r="128" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A128" s="53" t="s">
         <v>118</v>
       </c>
@@ -19840,10 +19851,10 @@
       <c r="AQ128" s="53"/>
       <c r="AR128" s="53"/>
       <c r="AS128" s="53"/>
-      <c r="AX128" s="66"/>
       <c r="AY128" s="66"/>
-    </row>
-    <row r="129" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ128" s="66"/>
+    </row>
+    <row r="129" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A129" s="53" t="s">
         <v>14</v>
       </c>
@@ -19868,10 +19879,10 @@
       <c r="AQ129" s="53"/>
       <c r="AR129" s="53"/>
       <c r="AS129" s="53"/>
-      <c r="AX129" s="66"/>
       <c r="AY129" s="66"/>
-    </row>
-    <row r="130" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ129" s="66"/>
+    </row>
+    <row r="130" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A130" s="53" t="s">
         <v>27</v>
       </c>
@@ -19895,10 +19906,10 @@
       <c r="AQ130" s="53"/>
       <c r="AR130" s="53"/>
       <c r="AS130" s="53"/>
-      <c r="AX130" s="66"/>
       <c r="AY130" s="66"/>
-    </row>
-    <row r="131" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ130" s="66"/>
+    </row>
+    <row r="131" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A131" s="53" t="s">
         <v>16</v>
       </c>
@@ -19926,10 +19937,10 @@
       <c r="AQ131" s="53"/>
       <c r="AR131" s="53"/>
       <c r="AS131" s="53"/>
-      <c r="AX131" s="66"/>
       <c r="AY131" s="66"/>
-    </row>
-    <row r="132" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ131" s="66"/>
+    </row>
+    <row r="132" spans="1:52" ht="13" customHeight="1">
       <c r="A132" s="40" t="s">
         <v>20</v>
       </c>
@@ -20033,10 +20044,10 @@
       <c r="AT132" s="16"/>
       <c r="AU132" s="16"/>
       <c r="AV132" s="16"/>
-      <c r="AX132" s="66"/>
       <c r="AY132" s="66"/>
-    </row>
-    <row r="133" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ132" s="66"/>
+    </row>
+    <row r="133" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A133" s="64" t="s">
         <v>2284</v>
       </c>
@@ -20066,10 +20077,10 @@
       <c r="AQ133" s="53"/>
       <c r="AR133" s="53"/>
       <c r="AS133" s="53"/>
-      <c r="AX133" s="66"/>
       <c r="AY133" s="66"/>
-    </row>
-    <row r="134" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ133" s="66"/>
+    </row>
+    <row r="134" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A134" s="53" t="s">
         <v>118</v>
       </c>
@@ -20105,10 +20116,10 @@
       <c r="AQ134" s="53"/>
       <c r="AR134" s="53"/>
       <c r="AS134" s="53"/>
-      <c r="AX134" s="66"/>
       <c r="AY134" s="66"/>
-    </row>
-    <row r="135" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ134" s="66"/>
+    </row>
+    <row r="135" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A135" s="53" t="s">
         <v>14</v>
       </c>
@@ -20133,10 +20144,10 @@
       <c r="AQ135" s="53"/>
       <c r="AR135" s="53"/>
       <c r="AS135" s="53"/>
-      <c r="AX135" s="66"/>
       <c r="AY135" s="66"/>
-    </row>
-    <row r="136" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ135" s="66"/>
+    </row>
+    <row r="136" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A136" s="53" t="s">
         <v>27</v>
       </c>
@@ -20160,10 +20171,10 @@
       <c r="AQ136" s="53"/>
       <c r="AR136" s="53"/>
       <c r="AS136" s="53"/>
-      <c r="AX136" s="66"/>
       <c r="AY136" s="66"/>
-    </row>
-    <row r="137" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ136" s="66"/>
+    </row>
+    <row r="137" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A137" s="53" t="s">
         <v>20</v>
       </c>
@@ -20193,10 +20204,10 @@
       <c r="AQ137" s="53"/>
       <c r="AR137" s="53"/>
       <c r="AS137" s="53"/>
-      <c r="AX137" s="66"/>
       <c r="AY137" s="66"/>
-    </row>
-    <row r="138" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ137" s="66"/>
+    </row>
+    <row r="138" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A138" s="53" t="s">
         <v>20</v>
       </c>
@@ -20226,10 +20237,10 @@
       <c r="AQ138" s="53"/>
       <c r="AR138" s="53"/>
       <c r="AS138" s="53"/>
-      <c r="AX138" s="66"/>
       <c r="AY138" s="66"/>
-    </row>
-    <row r="139" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ138" s="66"/>
+    </row>
+    <row r="139" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A139" s="53" t="s">
         <v>16</v>
       </c>
@@ -20257,10 +20268,10 @@
       <c r="AQ139" s="53"/>
       <c r="AR139" s="53"/>
       <c r="AS139" s="53"/>
-      <c r="AX139" s="66"/>
       <c r="AY139" s="66"/>
-    </row>
-    <row r="140" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ139" s="66"/>
+    </row>
+    <row r="140" spans="1:52" ht="13" customHeight="1">
       <c r="A140" s="40" t="s">
         <v>20</v>
       </c>
@@ -20364,10 +20375,10 @@
       <c r="AT140" s="16"/>
       <c r="AU140" s="16"/>
       <c r="AV140" s="16"/>
-      <c r="AX140" s="66"/>
       <c r="AY140" s="66"/>
-    </row>
-    <row r="141" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ140" s="66"/>
+    </row>
+    <row r="141" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A141" s="64" t="s">
         <v>2284</v>
       </c>
@@ -20397,10 +20408,10 @@
       <c r="AQ141" s="53"/>
       <c r="AR141" s="53"/>
       <c r="AS141" s="53"/>
-      <c r="AX141" s="66"/>
       <c r="AY141" s="66"/>
-    </row>
-    <row r="142" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ141" s="66"/>
+    </row>
+    <row r="142" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A142" s="53" t="s">
         <v>118</v>
       </c>
@@ -20436,10 +20447,10 @@
       <c r="AQ142" s="53"/>
       <c r="AR142" s="53"/>
       <c r="AS142" s="53"/>
-      <c r="AX142" s="66"/>
       <c r="AY142" s="66"/>
-    </row>
-    <row r="143" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ142" s="66"/>
+    </row>
+    <row r="143" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A143" s="53" t="s">
         <v>14</v>
       </c>
@@ -20464,10 +20475,10 @@
       <c r="AQ143" s="53"/>
       <c r="AR143" s="53"/>
       <c r="AS143" s="53"/>
-      <c r="AX143" s="66"/>
       <c r="AY143" s="66"/>
-    </row>
-    <row r="144" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ143" s="66"/>
+    </row>
+    <row r="144" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A144" s="53" t="s">
         <v>27</v>
       </c>
@@ -20491,10 +20502,10 @@
       <c r="AQ144" s="53"/>
       <c r="AR144" s="53"/>
       <c r="AS144" s="53"/>
-      <c r="AX144" s="66"/>
       <c r="AY144" s="66"/>
-    </row>
-    <row r="145" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ144" s="66"/>
+    </row>
+    <row r="145" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A145" s="53" t="s">
         <v>20</v>
       </c>
@@ -20524,10 +20535,10 @@
       <c r="AQ145" s="53"/>
       <c r="AR145" s="53"/>
       <c r="AS145" s="53"/>
-      <c r="AX145" s="66"/>
       <c r="AY145" s="66"/>
-    </row>
-    <row r="146" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ145" s="66"/>
+    </row>
+    <row r="146" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A146" s="53" t="s">
         <v>20</v>
       </c>
@@ -20557,10 +20568,10 @@
       <c r="AQ146" s="53"/>
       <c r="AR146" s="53"/>
       <c r="AS146" s="53"/>
-      <c r="AX146" s="66"/>
       <c r="AY146" s="66"/>
-    </row>
-    <row r="147" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ146" s="66"/>
+    </row>
+    <row r="147" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A147" s="53" t="s">
         <v>20</v>
       </c>
@@ -20590,10 +20601,10 @@
       <c r="AQ147" s="53"/>
       <c r="AR147" s="53"/>
       <c r="AS147" s="53"/>
-      <c r="AX147" s="66"/>
       <c r="AY147" s="66"/>
-    </row>
-    <row r="148" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ147" s="66"/>
+    </row>
+    <row r="148" spans="1:52" ht="13" customHeight="1">
       <c r="A148" s="40" t="s">
         <v>165</v>
       </c>
@@ -20659,10 +20670,10 @@
       <c r="AT148" s="16"/>
       <c r="AU148" s="16"/>
       <c r="AV148" s="16"/>
-      <c r="AX148" s="66"/>
       <c r="AY148" s="66"/>
-    </row>
-    <row r="149" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ148" s="66"/>
+    </row>
+    <row r="149" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A149" s="53" t="s">
         <v>16</v>
       </c>
@@ -20690,10 +20701,10 @@
       <c r="AQ149" s="53"/>
       <c r="AR149" s="53"/>
       <c r="AS149" s="53"/>
-      <c r="AX149" s="66"/>
       <c r="AY149" s="66"/>
-    </row>
-    <row r="150" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ149" s="66"/>
+    </row>
+    <row r="150" spans="1:52" ht="13" customHeight="1">
       <c r="A150" s="40" t="s">
         <v>20</v>
       </c>
@@ -20797,10 +20808,10 @@
       <c r="AT150" s="16"/>
       <c r="AU150" s="16"/>
       <c r="AV150" s="16"/>
-      <c r="AX150" s="66"/>
       <c r="AY150" s="66"/>
-    </row>
-    <row r="151" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ150" s="66"/>
+    </row>
+    <row r="151" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A151" s="64" t="s">
         <v>2284</v>
       </c>
@@ -20830,10 +20841,10 @@
       <c r="AQ151" s="53"/>
       <c r="AR151" s="53"/>
       <c r="AS151" s="53"/>
-      <c r="AX151" s="66"/>
       <c r="AY151" s="66"/>
-    </row>
-    <row r="152" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ151" s="66"/>
+    </row>
+    <row r="152" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A152" s="53" t="s">
         <v>118</v>
       </c>
@@ -20869,10 +20880,10 @@
       <c r="AQ152" s="53"/>
       <c r="AR152" s="53"/>
       <c r="AS152" s="53"/>
-      <c r="AX152" s="66"/>
       <c r="AY152" s="66"/>
-    </row>
-    <row r="153" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ152" s="66"/>
+    </row>
+    <row r="153" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A153" s="53" t="s">
         <v>14</v>
       </c>
@@ -20897,10 +20908,10 @@
       <c r="AQ153" s="53"/>
       <c r="AR153" s="53"/>
       <c r="AS153" s="53"/>
-      <c r="AX153" s="66"/>
       <c r="AY153" s="66"/>
-    </row>
-    <row r="154" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ153" s="66"/>
+    </row>
+    <row r="154" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A154" s="53" t="s">
         <v>27</v>
       </c>
@@ -20924,10 +20935,10 @@
       <c r="AQ154" s="53"/>
       <c r="AR154" s="53"/>
       <c r="AS154" s="53"/>
-      <c r="AX154" s="66"/>
       <c r="AY154" s="66"/>
-    </row>
-    <row r="155" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ154" s="66"/>
+    </row>
+    <row r="155" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A155" s="53" t="s">
         <v>20</v>
       </c>
@@ -20957,10 +20968,10 @@
       <c r="AQ155" s="53"/>
       <c r="AR155" s="53"/>
       <c r="AS155" s="53"/>
-      <c r="AX155" s="66"/>
       <c r="AY155" s="66"/>
-    </row>
-    <row r="156" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ155" s="66"/>
+    </row>
+    <row r="156" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A156" s="53" t="s">
         <v>20</v>
       </c>
@@ -20990,10 +21001,10 @@
       <c r="AQ156" s="53"/>
       <c r="AR156" s="53"/>
       <c r="AS156" s="53"/>
-      <c r="AX156" s="66"/>
       <c r="AY156" s="66"/>
-    </row>
-    <row r="157" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ156" s="66"/>
+    </row>
+    <row r="157" spans="1:52" ht="13" customHeight="1">
       <c r="A157" s="40" t="s">
         <v>181</v>
       </c>
@@ -21085,10 +21096,10 @@
       <c r="AT157" s="16"/>
       <c r="AU157" s="16"/>
       <c r="AV157" s="16"/>
-      <c r="AX157" s="66"/>
       <c r="AY157" s="66"/>
-    </row>
-    <row r="158" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ157" s="66"/>
+    </row>
+    <row r="158" spans="1:52" ht="13" customHeight="1">
       <c r="A158" s="40" t="s">
         <v>14</v>
       </c>
@@ -21126,10 +21137,10 @@
       <c r="AT158" s="16"/>
       <c r="AU158" s="16"/>
       <c r="AV158" s="16"/>
-      <c r="AX158" s="66"/>
       <c r="AY158" s="66"/>
-    </row>
-    <row r="159" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ158" s="66"/>
+    </row>
+    <row r="159" spans="1:52" ht="13" customHeight="1">
       <c r="A159" s="40" t="s">
         <v>28</v>
       </c>
@@ -21241,10 +21252,10 @@
       <c r="AT159" s="16"/>
       <c r="AU159" s="16"/>
       <c r="AV159" s="16"/>
-      <c r="AX159" s="66"/>
       <c r="AY159" s="66"/>
-    </row>
-    <row r="160" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ159" s="66"/>
+    </row>
+    <row r="160" spans="1:52" ht="13" customHeight="1">
       <c r="A160" s="40" t="s">
         <v>45</v>
       </c>
@@ -21356,10 +21367,10 @@
       <c r="AT160" s="16"/>
       <c r="AU160" s="16"/>
       <c r="AV160" s="16"/>
-      <c r="AX160" s="66"/>
       <c r="AY160" s="66"/>
-    </row>
-    <row r="161" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ160" s="66"/>
+    </row>
+    <row r="161" spans="1:52" ht="13" customHeight="1">
       <c r="A161" s="40" t="s">
         <v>194</v>
       </c>
@@ -21425,10 +21436,10 @@
       <c r="AT161" s="16"/>
       <c r="AU161" s="16"/>
       <c r="AV161" s="16"/>
-      <c r="AX161" s="66"/>
       <c r="AY161" s="66"/>
-    </row>
-    <row r="162" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ161" s="66"/>
+    </row>
+    <row r="162" spans="1:52" ht="13" customHeight="1">
       <c r="A162" s="40" t="s">
         <v>28</v>
       </c>
@@ -21540,10 +21551,10 @@
       <c r="AT162" s="16"/>
       <c r="AU162" s="16"/>
       <c r="AV162" s="16"/>
-      <c r="AX162" s="66"/>
       <c r="AY162" s="66"/>
-    </row>
-    <row r="163" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ162" s="66"/>
+    </row>
+    <row r="163" spans="1:52" ht="13" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>14</v>
       </c>
@@ -21583,10 +21594,10 @@
       <c r="AT163" s="16"/>
       <c r="AU163" s="16"/>
       <c r="AV163" s="16"/>
-      <c r="AX163" s="66"/>
       <c r="AY163" s="66"/>
-    </row>
-    <row r="164" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ163" s="66"/>
+    </row>
+    <row r="164" spans="1:52" ht="13" customHeight="1">
       <c r="A164" s="40" t="s">
         <v>14</v>
       </c>
@@ -21626,10 +21637,10 @@
       <c r="AT164" s="16"/>
       <c r="AU164" s="16"/>
       <c r="AV164" s="16"/>
-      <c r="AX164" s="66"/>
       <c r="AY164" s="66"/>
-    </row>
-    <row r="165" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ164" s="66"/>
+    </row>
+    <row r="165" spans="1:52" ht="13" customHeight="1">
       <c r="A165" s="40" t="s">
         <v>16</v>
       </c>
@@ -21669,10 +21680,10 @@
       <c r="AT165" s="16"/>
       <c r="AU165" s="16"/>
       <c r="AV165" s="16"/>
-      <c r="AX165" s="66"/>
       <c r="AY165" s="66"/>
-    </row>
-    <row r="166" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ165" s="66"/>
+    </row>
+    <row r="166" spans="1:52" ht="13" customHeight="1">
       <c r="A166" s="40" t="s">
         <v>20</v>
       </c>
@@ -21734,10 +21745,10 @@
       <c r="AT166" s="16"/>
       <c r="AU166" s="16"/>
       <c r="AV166" s="16"/>
-      <c r="AX166" s="66"/>
       <c r="AY166" s="66"/>
-    </row>
-    <row r="167" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ166" s="66"/>
+    </row>
+    <row r="167" spans="1:52" ht="13" customHeight="1">
       <c r="A167" s="40" t="s">
         <v>20</v>
       </c>
@@ -21801,10 +21812,10 @@
       <c r="AT167" s="16"/>
       <c r="AU167" s="16"/>
       <c r="AV167" s="16"/>
-      <c r="AX167" s="66"/>
       <c r="AY167" s="66"/>
-    </row>
-    <row r="168" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ167" s="66"/>
+    </row>
+    <row r="168" spans="1:52" ht="13" customHeight="1">
       <c r="A168" s="40" t="s">
         <v>45</v>
       </c>
@@ -21914,10 +21925,10 @@
       <c r="AT168" s="16"/>
       <c r="AU168" s="16"/>
       <c r="AV168" s="16"/>
-      <c r="AX168" s="66"/>
       <c r="AY168" s="66"/>
-    </row>
-    <row r="169" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ168" s="66"/>
+    </row>
+    <row r="169" spans="1:52" ht="13" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>27</v>
       </c>
@@ -21954,10 +21965,10 @@
       <c r="AT169" s="16"/>
       <c r="AU169" s="16"/>
       <c r="AV169" s="16"/>
-      <c r="AX169" s="66"/>
       <c r="AY169" s="66"/>
-    </row>
-    <row r="170" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ169" s="66"/>
+    </row>
+    <row r="170" spans="1:52" ht="13" customHeight="1">
       <c r="A170" s="40" t="s">
         <v>28</v>
       </c>
@@ -22069,10 +22080,10 @@
       <c r="AT170" s="16"/>
       <c r="AU170" s="16"/>
       <c r="AV170" s="16"/>
-      <c r="AX170" s="66"/>
       <c r="AY170" s="66"/>
-    </row>
-    <row r="171" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ170" s="66"/>
+    </row>
+    <row r="171" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A171" s="40" t="s">
         <v>20</v>
       </c>
@@ -22144,10 +22155,10 @@
       <c r="AT171" s="10"/>
       <c r="AU171" s="10"/>
       <c r="AV171" s="10"/>
-      <c r="AX171" s="66"/>
       <c r="AY171" s="66"/>
-    </row>
-    <row r="172" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ171" s="66"/>
+    </row>
+    <row r="172" spans="1:52" ht="13" customHeight="1">
       <c r="A172" s="40" t="s">
         <v>776</v>
       </c>
@@ -22214,10 +22225,10 @@
       <c r="AT172" s="16"/>
       <c r="AU172" s="16"/>
       <c r="AV172" s="16"/>
-      <c r="AX172" s="66"/>
       <c r="AY172" s="66"/>
-    </row>
-    <row r="173" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ172" s="66"/>
+    </row>
+    <row r="173" spans="1:52" ht="13" customHeight="1">
       <c r="A173" s="40" t="s">
         <v>780</v>
       </c>
@@ -22284,10 +22295,10 @@
       <c r="AT173" s="16"/>
       <c r="AU173" s="16"/>
       <c r="AV173" s="16"/>
-      <c r="AX173" s="66"/>
       <c r="AY173" s="66"/>
-    </row>
-    <row r="174" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ173" s="66"/>
+    </row>
+    <row r="174" spans="1:52" ht="13" customHeight="1">
       <c r="A174" s="40" t="s">
         <v>780</v>
       </c>
@@ -22354,10 +22365,10 @@
       <c r="AT174" s="16"/>
       <c r="AU174" s="16"/>
       <c r="AV174" s="16"/>
-      <c r="AX174" s="66"/>
       <c r="AY174" s="66"/>
-    </row>
-    <row r="175" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ174" s="66"/>
+    </row>
+    <row r="175" spans="1:52" ht="13" customHeight="1">
       <c r="A175" s="40" t="s">
         <v>208</v>
       </c>
@@ -22450,10 +22461,10 @@
       <c r="AT175" s="16"/>
       <c r="AU175" s="16"/>
       <c r="AV175" s="16"/>
-      <c r="AX175" s="66"/>
       <c r="AY175" s="66"/>
-    </row>
-    <row r="176" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ175" s="66"/>
+    </row>
+    <row r="176" spans="1:52" ht="13" customHeight="1">
       <c r="A176" s="40" t="s">
         <v>208</v>
       </c>
@@ -22546,10 +22557,10 @@
       <c r="AT176" s="16"/>
       <c r="AU176" s="16"/>
       <c r="AV176" s="16"/>
-      <c r="AX176" s="66"/>
       <c r="AY176" s="66"/>
-    </row>
-    <row r="177" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ176" s="66"/>
+    </row>
+    <row r="177" spans="1:52" ht="13" customHeight="1">
       <c r="A177" s="40" t="s">
         <v>208</v>
       </c>
@@ -22642,10 +22653,10 @@
       <c r="AT177" s="16"/>
       <c r="AU177" s="16"/>
       <c r="AV177" s="16"/>
-      <c r="AX177" s="66"/>
       <c r="AY177" s="66"/>
-    </row>
-    <row r="178" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ177" s="66"/>
+    </row>
+    <row r="178" spans="1:52" ht="13" customHeight="1">
       <c r="A178" s="40" t="s">
         <v>14</v>
       </c>
@@ -22684,10 +22695,10 @@
       <c r="AT178" s="16"/>
       <c r="AU178" s="16"/>
       <c r="AV178" s="16"/>
-      <c r="AX178" s="66"/>
       <c r="AY178" s="66"/>
-    </row>
-    <row r="179" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ178" s="66"/>
+    </row>
+    <row r="179" spans="1:52" ht="13" customHeight="1">
       <c r="A179" s="40" t="s">
         <v>45</v>
       </c>
@@ -22774,10 +22785,10 @@
       <c r="AT179" s="16"/>
       <c r="AU179" s="16"/>
       <c r="AV179" s="16"/>
-      <c r="AX179" s="66"/>
       <c r="AY179" s="66"/>
-    </row>
-    <row r="180" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ179" s="66"/>
+    </row>
+    <row r="180" spans="1:52" ht="13" customHeight="1">
       <c r="A180" s="40" t="s">
         <v>16</v>
       </c>
@@ -22818,10 +22829,10 @@
       <c r="AT180" s="16"/>
       <c r="AU180" s="16"/>
       <c r="AV180" s="16"/>
-      <c r="AX180" s="66"/>
       <c r="AY180" s="66"/>
-    </row>
-    <row r="181" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ180" s="66"/>
+    </row>
+    <row r="181" spans="1:52" ht="13" customHeight="1">
       <c r="A181" s="40" t="s">
         <v>20</v>
       </c>
@@ -22886,10 +22897,10 @@
       <c r="AT181" s="16"/>
       <c r="AU181" s="16"/>
       <c r="AV181" s="16"/>
-      <c r="AX181" s="66"/>
       <c r="AY181" s="66"/>
-    </row>
-    <row r="182" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ181" s="66"/>
+    </row>
+    <row r="182" spans="1:52" ht="13" customHeight="1">
       <c r="A182" s="40" t="s">
         <v>20</v>
       </c>
@@ -22954,10 +22965,10 @@
       <c r="AT182" s="16"/>
       <c r="AU182" s="16"/>
       <c r="AV182" s="16"/>
-      <c r="AX182" s="66"/>
       <c r="AY182" s="66"/>
-    </row>
-    <row r="183" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ182" s="66"/>
+    </row>
+    <row r="183" spans="1:52" ht="13" customHeight="1">
       <c r="A183" s="40" t="s">
         <v>20</v>
       </c>
@@ -23022,10 +23033,10 @@
       <c r="AT183" s="16"/>
       <c r="AU183" s="16"/>
       <c r="AV183" s="16"/>
-      <c r="AX183" s="66"/>
       <c r="AY183" s="66"/>
-    </row>
-    <row r="184" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ183" s="66"/>
+    </row>
+    <row r="184" spans="1:52" ht="13" customHeight="1">
       <c r="A184" s="40" t="s">
         <v>20</v>
       </c>
@@ -23090,10 +23101,10 @@
       <c r="AT184" s="16"/>
       <c r="AU184" s="16"/>
       <c r="AV184" s="16"/>
-      <c r="AX184" s="66"/>
       <c r="AY184" s="66"/>
-    </row>
-    <row r="185" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ184" s="66"/>
+    </row>
+    <row r="185" spans="1:52" ht="13" customHeight="1">
       <c r="A185" s="40" t="s">
         <v>213</v>
       </c>
@@ -23158,10 +23169,10 @@
       <c r="AT185" s="16"/>
       <c r="AU185" s="16"/>
       <c r="AV185" s="16"/>
-      <c r="AX185" s="66"/>
       <c r="AY185" s="66"/>
-    </row>
-    <row r="186" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ185" s="66"/>
+    </row>
+    <row r="186" spans="1:52" ht="13" customHeight="1">
       <c r="A186" s="40" t="s">
         <v>27</v>
       </c>
@@ -23198,10 +23209,10 @@
       <c r="AT186" s="16"/>
       <c r="AU186" s="16"/>
       <c r="AV186" s="16"/>
-      <c r="AX186" s="66"/>
       <c r="AY186" s="66"/>
-    </row>
-    <row r="187" spans="1:51" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ186" s="66"/>
+    </row>
+    <row r="187" spans="1:52" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A187" s="47" t="s">
         <v>20</v>
       </c>
@@ -23291,10 +23302,10 @@
       <c r="AT187" s="48"/>
       <c r="AU187" s="48"/>
       <c r="AV187" s="48"/>
-      <c r="AX187" s="66"/>
       <c r="AY187" s="66"/>
-    </row>
-    <row r="188" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ187" s="66"/>
+    </row>
+    <row r="188" spans="1:52" ht="13" customHeight="1">
       <c r="A188" s="40" t="s">
         <v>215</v>
       </c>
@@ -23360,10 +23371,10 @@
       <c r="AT188" s="16"/>
       <c r="AU188" s="16"/>
       <c r="AV188" s="16"/>
-      <c r="AX188" s="66"/>
       <c r="AY188" s="66"/>
-    </row>
-    <row r="189" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ188" s="66"/>
+    </row>
+    <row r="189" spans="1:52" ht="13" customHeight="1">
       <c r="A189" s="40" t="s">
         <v>215</v>
       </c>
@@ -23429,10 +23440,10 @@
       <c r="AT189" s="16"/>
       <c r="AU189" s="16"/>
       <c r="AV189" s="16"/>
-      <c r="AX189" s="66"/>
       <c r="AY189" s="66"/>
-    </row>
-    <row r="190" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ189" s="66"/>
+    </row>
+    <row r="190" spans="1:52" ht="13" customHeight="1">
       <c r="A190" s="40" t="s">
         <v>215</v>
       </c>
@@ -23516,10 +23527,10 @@
       <c r="AV190" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="AX190" s="66"/>
       <c r="AY190" s="66"/>
-    </row>
-    <row r="191" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ190" s="66"/>
+    </row>
+    <row r="191" spans="1:52" ht="13" customHeight="1">
       <c r="A191" s="40" t="s">
         <v>215</v>
       </c>
@@ -23603,10 +23614,10 @@
       <c r="AV191" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="AX191" s="66"/>
       <c r="AY191" s="66"/>
-    </row>
-    <row r="192" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ191" s="66"/>
+    </row>
+    <row r="192" spans="1:52" ht="13" customHeight="1">
       <c r="A192" s="40" t="s">
         <v>215</v>
       </c>
@@ -23690,10 +23701,10 @@
       <c r="AV192" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="AX192" s="66"/>
       <c r="AY192" s="66"/>
-    </row>
-    <row r="193" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ192" s="66"/>
+    </row>
+    <row r="193" spans="1:52" ht="13" customHeight="1">
       <c r="A193" s="40" t="s">
         <v>215</v>
       </c>
@@ -23777,10 +23788,10 @@
       <c r="AV193" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="AX193" s="66"/>
       <c r="AY193" s="66"/>
-    </row>
-    <row r="194" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ193" s="66"/>
+    </row>
+    <row r="194" spans="1:52" ht="13" customHeight="1">
       <c r="A194" s="40" t="s">
         <v>215</v>
       </c>
@@ -23846,10 +23857,10 @@
       <c r="AT194" s="16"/>
       <c r="AU194" s="16"/>
       <c r="AV194" s="16"/>
-      <c r="AX194" s="66"/>
       <c r="AY194" s="66"/>
-    </row>
-    <row r="195" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ194" s="66"/>
+    </row>
+    <row r="195" spans="1:52" ht="13" customHeight="1">
       <c r="A195" s="40" t="s">
         <v>215</v>
       </c>
@@ -23933,10 +23944,10 @@
       <c r="AV195" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AX195" s="66"/>
       <c r="AY195" s="66"/>
-    </row>
-    <row r="196" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ195" s="66"/>
+    </row>
+    <row r="196" spans="1:52" ht="13" customHeight="1">
       <c r="A196" s="40" t="s">
         <v>215</v>
       </c>
@@ -24020,10 +24031,10 @@
       <c r="AV196" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="AX196" s="66"/>
       <c r="AY196" s="66"/>
-    </row>
-    <row r="197" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ196" s="66"/>
+    </row>
+    <row r="197" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A197" s="40" t="s">
         <v>215</v>
       </c>
@@ -24115,10 +24126,10 @@
       <c r="AV197" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="AX197" s="66"/>
       <c r="AY197" s="66"/>
-    </row>
-    <row r="198" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ197" s="66"/>
+    </row>
+    <row r="198" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A198" s="40" t="s">
         <v>215</v>
       </c>
@@ -24210,10 +24221,10 @@
       <c r="AV198" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="AX198" s="66"/>
       <c r="AY198" s="66"/>
-    </row>
-    <row r="199" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ198" s="66"/>
+    </row>
+    <row r="199" spans="1:52" ht="13" customHeight="1">
       <c r="A199" s="40" t="s">
         <v>215</v>
       </c>
@@ -24297,10 +24308,10 @@
       <c r="AV199" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="AX199" s="66"/>
       <c r="AY199" s="66"/>
-    </row>
-    <row r="200" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ199" s="66"/>
+    </row>
+    <row r="200" spans="1:52" ht="13" customHeight="1">
       <c r="A200" s="40" t="s">
         <v>215</v>
       </c>
@@ -24366,10 +24377,10 @@
       <c r="AT200" s="16"/>
       <c r="AU200" s="16"/>
       <c r="AV200" s="16"/>
-      <c r="AX200" s="66"/>
       <c r="AY200" s="66"/>
-    </row>
-    <row r="201" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ200" s="66"/>
+    </row>
+    <row r="201" spans="1:52" ht="13" customHeight="1">
       <c r="A201" s="40" t="s">
         <v>215</v>
       </c>
@@ -24435,10 +24446,10 @@
       <c r="AT201" s="16"/>
       <c r="AU201" s="16"/>
       <c r="AV201" s="16"/>
-      <c r="AX201" s="66"/>
       <c r="AY201" s="66"/>
-    </row>
-    <row r="202" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ201" s="66"/>
+    </row>
+    <row r="202" spans="1:52" ht="13" customHeight="1">
       <c r="A202" s="40" t="s">
         <v>215</v>
       </c>
@@ -24504,10 +24515,10 @@
       <c r="AT202" s="16"/>
       <c r="AU202" s="16"/>
       <c r="AV202" s="16"/>
-      <c r="AX202" s="66"/>
       <c r="AY202" s="66"/>
-    </row>
-    <row r="203" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ202" s="66"/>
+    </row>
+    <row r="203" spans="1:52" ht="13" customHeight="1">
       <c r="A203" s="40" t="s">
         <v>215</v>
       </c>
@@ -24573,10 +24584,10 @@
       <c r="AT203" s="16"/>
       <c r="AU203" s="16"/>
       <c r="AV203" s="16"/>
-      <c r="AX203" s="66"/>
       <c r="AY203" s="66"/>
-    </row>
-    <row r="204" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ203" s="66"/>
+    </row>
+    <row r="204" spans="1:52" ht="13" customHeight="1">
       <c r="A204" s="40" t="s">
         <v>215</v>
       </c>
@@ -24642,10 +24653,10 @@
       <c r="AT204" s="16"/>
       <c r="AU204" s="16"/>
       <c r="AV204" s="16"/>
-      <c r="AX204" s="66"/>
       <c r="AY204" s="66"/>
-    </row>
-    <row r="205" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ204" s="66"/>
+    </row>
+    <row r="205" spans="1:52" ht="13" customHeight="1">
       <c r="A205" s="40" t="s">
         <v>16</v>
       </c>
@@ -24686,10 +24697,10 @@
       <c r="AT205" s="16"/>
       <c r="AU205" s="16"/>
       <c r="AV205" s="16"/>
-      <c r="AX205" s="66"/>
       <c r="AY205" s="66"/>
-    </row>
-    <row r="206" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ205" s="66"/>
+    </row>
+    <row r="206" spans="1:52" ht="13" customHeight="1">
       <c r="A206" s="40" t="s">
         <v>240</v>
       </c>
@@ -24800,10 +24811,10 @@
       <c r="AT206" s="16"/>
       <c r="AU206" s="16"/>
       <c r="AV206" s="16"/>
-      <c r="AX206" s="66"/>
       <c r="AY206" s="66"/>
-    </row>
-    <row r="207" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ206" s="66"/>
+    </row>
+    <row r="207" spans="1:52" ht="13" customHeight="1">
       <c r="A207" s="40" t="s">
         <v>101</v>
       </c>
@@ -24868,10 +24879,10 @@
       <c r="AT207" s="16"/>
       <c r="AU207" s="16"/>
       <c r="AV207" s="16"/>
-      <c r="AX207" s="66"/>
       <c r="AY207" s="66"/>
-    </row>
-    <row r="208" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ207" s="66"/>
+    </row>
+    <row r="208" spans="1:52" ht="13" customHeight="1">
       <c r="A208" s="40" t="s">
         <v>27</v>
       </c>
@@ -24908,10 +24919,10 @@
       <c r="AT208" s="16"/>
       <c r="AU208" s="16"/>
       <c r="AV208" s="16"/>
-      <c r="AX208" s="66"/>
       <c r="AY208" s="66"/>
-    </row>
-    <row r="209" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ208" s="66"/>
+    </row>
+    <row r="209" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A209" s="40" t="s">
         <v>1029</v>
       </c>
@@ -25021,10 +25032,10 @@
       <c r="AV209" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="AX209" s="66"/>
       <c r="AY209" s="66"/>
-    </row>
-    <row r="210" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ209" s="66"/>
+    </row>
+    <row r="210" spans="1:52" ht="13" customHeight="1">
       <c r="A210" s="40" t="s">
         <v>215</v>
       </c>
@@ -25090,10 +25101,10 @@
       <c r="AT210" s="16"/>
       <c r="AU210" s="16"/>
       <c r="AV210" s="16"/>
-      <c r="AX210" s="66"/>
       <c r="AY210" s="66"/>
-    </row>
-    <row r="211" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ210" s="66"/>
+    </row>
+    <row r="211" spans="1:52" ht="13" customHeight="1">
       <c r="A211" s="40" t="s">
         <v>215</v>
       </c>
@@ -25159,10 +25170,10 @@
       <c r="AT211" s="16"/>
       <c r="AU211" s="16"/>
       <c r="AV211" s="16"/>
-      <c r="AX211" s="66"/>
       <c r="AY211" s="66"/>
-    </row>
-    <row r="212" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ211" s="66"/>
+    </row>
+    <row r="212" spans="1:52" ht="13" customHeight="1">
       <c r="A212" s="40" t="s">
         <v>215</v>
       </c>
@@ -25228,10 +25239,10 @@
       <c r="AT212" s="16"/>
       <c r="AU212" s="16"/>
       <c r="AV212" s="16"/>
-      <c r="AX212" s="66"/>
       <c r="AY212" s="66"/>
-    </row>
-    <row r="213" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ212" s="66"/>
+    </row>
+    <row r="213" spans="1:52" ht="13" customHeight="1">
       <c r="A213" s="40" t="s">
         <v>215</v>
       </c>
@@ -25297,10 +25308,10 @@
       <c r="AT213" s="16"/>
       <c r="AU213" s="16"/>
       <c r="AV213" s="16"/>
-      <c r="AX213" s="66"/>
       <c r="AY213" s="66"/>
-    </row>
-    <row r="214" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ213" s="66"/>
+    </row>
+    <row r="214" spans="1:52" ht="13" customHeight="1">
       <c r="A214" s="40" t="s">
         <v>215</v>
       </c>
@@ -25366,10 +25377,10 @@
       <c r="AT214" s="16"/>
       <c r="AU214" s="16"/>
       <c r="AV214" s="16"/>
-      <c r="AX214" s="66"/>
       <c r="AY214" s="66"/>
-    </row>
-    <row r="215" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ214" s="66"/>
+    </row>
+    <row r="215" spans="1:52" ht="13" customHeight="1">
       <c r="A215" s="40" t="s">
         <v>215</v>
       </c>
@@ -25435,10 +25446,10 @@
       <c r="AT215" s="16"/>
       <c r="AU215" s="16"/>
       <c r="AV215" s="16"/>
-      <c r="AX215" s="66"/>
       <c r="AY215" s="66"/>
-    </row>
-    <row r="216" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ215" s="66"/>
+    </row>
+    <row r="216" spans="1:52" ht="13" customHeight="1">
       <c r="A216" s="40" t="s">
         <v>16</v>
       </c>
@@ -25479,10 +25490,10 @@
       <c r="AT216" s="16"/>
       <c r="AU216" s="16"/>
       <c r="AV216" s="16"/>
-      <c r="AX216" s="66"/>
       <c r="AY216" s="66"/>
-    </row>
-    <row r="217" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ216" s="66"/>
+    </row>
+    <row r="217" spans="1:52" ht="13" customHeight="1">
       <c r="A217" s="40" t="s">
         <v>256</v>
       </c>
@@ -25573,10 +25584,10 @@
       <c r="AT217" s="16"/>
       <c r="AU217" s="16"/>
       <c r="AV217" s="16"/>
-      <c r="AX217" s="66"/>
       <c r="AY217" s="66"/>
-    </row>
-    <row r="218" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ217" s="66"/>
+    </row>
+    <row r="218" spans="1:52" ht="13" customHeight="1">
       <c r="A218" s="40" t="s">
         <v>101</v>
       </c>
@@ -25641,10 +25652,10 @@
       <c r="AT218" s="16"/>
       <c r="AU218" s="16"/>
       <c r="AV218" s="16"/>
-      <c r="AX218" s="66"/>
       <c r="AY218" s="66"/>
-    </row>
-    <row r="219" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ218" s="66"/>
+    </row>
+    <row r="219" spans="1:52" ht="13" customHeight="1">
       <c r="A219" s="40" t="s">
         <v>27</v>
       </c>
@@ -25681,10 +25692,10 @@
       <c r="AT219" s="16"/>
       <c r="AU219" s="16"/>
       <c r="AV219" s="16"/>
-      <c r="AX219" s="66"/>
       <c r="AY219" s="66"/>
-    </row>
-    <row r="220" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ219" s="66"/>
+    </row>
+    <row r="220" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A220" s="40" t="s">
         <v>1029</v>
       </c>
@@ -25794,10 +25805,10 @@
       <c r="AV220" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="AX220" s="66"/>
       <c r="AY220" s="66"/>
-    </row>
-    <row r="221" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ220" s="66"/>
+    </row>
+    <row r="221" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A221" s="40" t="s">
         <v>14</v>
       </c>
@@ -25851,10 +25862,10 @@
       <c r="AT221" s="10"/>
       <c r="AU221" s="10"/>
       <c r="AV221" s="10"/>
-      <c r="AX221" s="66"/>
       <c r="AY221" s="66"/>
-    </row>
-    <row r="222" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ221" s="66"/>
+    </row>
+    <row r="222" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A222" s="40" t="s">
         <v>14</v>
       </c>
@@ -25908,10 +25919,10 @@
       <c r="AT222" s="10"/>
       <c r="AU222" s="10"/>
       <c r="AV222" s="10"/>
-      <c r="AX222" s="66"/>
       <c r="AY222" s="66"/>
-    </row>
-    <row r="223" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ222" s="66"/>
+    </row>
+    <row r="223" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A223" s="40" t="s">
         <v>14</v>
       </c>
@@ -25965,10 +25976,10 @@
       <c r="AT223" s="10"/>
       <c r="AU223" s="10"/>
       <c r="AV223" s="10"/>
-      <c r="AX223" s="66"/>
       <c r="AY223" s="66"/>
-    </row>
-    <row r="224" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ223" s="66"/>
+    </row>
+    <row r="224" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A224" s="40" t="s">
         <v>165</v>
       </c>
@@ -26042,10 +26053,10 @@
       <c r="AT224" s="10"/>
       <c r="AU224" s="10"/>
       <c r="AV224" s="10"/>
-      <c r="AX224" s="66"/>
       <c r="AY224" s="66"/>
-    </row>
-    <row r="225" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ224" s="66"/>
+    </row>
+    <row r="225" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A225" s="40" t="s">
         <v>831</v>
       </c>
@@ -26119,10 +26130,10 @@
       <c r="AT225" s="10"/>
       <c r="AU225" s="10"/>
       <c r="AV225" s="10"/>
-      <c r="AX225" s="66"/>
       <c r="AY225" s="66"/>
-    </row>
-    <row r="226" spans="1:51" s="16" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ225" s="66"/>
+    </row>
+    <row r="226" spans="1:52" s="16" customFormat="1" ht="13" customHeight="1">
       <c r="A226" s="40" t="s">
         <v>14</v>
       </c>
@@ -26149,10 +26160,10 @@
       <c r="AD226" s="40"/>
       <c r="AE226" s="40"/>
       <c r="AF226" s="40"/>
-      <c r="AX226" s="66"/>
       <c r="AY226" s="66"/>
-    </row>
-    <row r="227" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ226" s="66"/>
+    </row>
+    <row r="227" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A227" s="53" t="s">
         <v>16</v>
       </c>
@@ -26165,10 +26176,10 @@
       <c r="J227" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="AX227" s="66"/>
       <c r="AY227" s="66"/>
-    </row>
-    <row r="228" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ227" s="66"/>
+    </row>
+    <row r="228" spans="1:52" ht="13" customHeight="1">
       <c r="A228" s="40" t="s">
         <v>20</v>
       </c>
@@ -26257,10 +26268,10 @@
       <c r="AT228" s="16"/>
       <c r="AU228" s="16"/>
       <c r="AV228" s="16"/>
-      <c r="AX228" s="66"/>
       <c r="AY228" s="66"/>
-    </row>
-    <row r="229" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ228" s="66"/>
+    </row>
+    <row r="229" spans="1:52" ht="13" customHeight="1">
       <c r="A229" s="40" t="s">
         <v>20</v>
       </c>
@@ -26325,10 +26336,10 @@
       <c r="AT229" s="16"/>
       <c r="AU229" s="16"/>
       <c r="AV229" s="16"/>
-      <c r="AX229" s="66"/>
       <c r="AY229" s="66"/>
-    </row>
-    <row r="230" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ229" s="66"/>
+    </row>
+    <row r="230" spans="1:52" ht="13" customHeight="1">
       <c r="A230" s="40" t="s">
         <v>20</v>
       </c>
@@ -26393,10 +26404,10 @@
       <c r="AT230" s="16"/>
       <c r="AU230" s="16"/>
       <c r="AV230" s="16"/>
-      <c r="AX230" s="66"/>
       <c r="AY230" s="66"/>
-    </row>
-    <row r="231" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ230" s="66"/>
+    </row>
+    <row r="231" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A231" s="64" t="s">
         <v>2284</v>
       </c>
@@ -26426,10 +26437,10 @@
       <c r="AQ231" s="53"/>
       <c r="AR231" s="53"/>
       <c r="AS231" s="53"/>
-      <c r="AX231" s="66"/>
       <c r="AY231" s="66"/>
-    </row>
-    <row r="232" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ231" s="66"/>
+    </row>
+    <row r="232" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A232" s="53" t="s">
         <v>118</v>
       </c>
@@ -26465,10 +26476,10 @@
       <c r="AQ232" s="53"/>
       <c r="AR232" s="53"/>
       <c r="AS232" s="53"/>
-      <c r="AX232" s="66"/>
       <c r="AY232" s="66"/>
-    </row>
-    <row r="233" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ232" s="66"/>
+    </row>
+    <row r="233" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A233" s="53" t="s">
         <v>14</v>
       </c>
@@ -26493,20 +26504,20 @@
       <c r="AQ233" s="53"/>
       <c r="AR233" s="53"/>
       <c r="AS233" s="53"/>
-      <c r="AX233" s="66"/>
       <c r="AY233" s="66"/>
-    </row>
-    <row r="234" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ233" s="66"/>
+    </row>
+    <row r="234" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A234" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B234" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="AX234" s="66"/>
       <c r="AY234" s="66"/>
-    </row>
-    <row r="235" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ234" s="66"/>
+    </row>
+    <row r="235" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A235" s="53" t="s">
         <v>20</v>
       </c>
@@ -26546,10 +26557,10 @@
       <c r="X235" s="53" t="s">
         <v>1112</v>
       </c>
-      <c r="AX235" s="66"/>
       <c r="AY235" s="66"/>
-    </row>
-    <row r="236" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ235" s="66"/>
+    </row>
+    <row r="236" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A236" s="53" t="s">
         <v>20</v>
       </c>
@@ -26589,10 +26600,10 @@
       <c r="X236" s="53" t="s">
         <v>1113</v>
       </c>
-      <c r="AX236" s="66"/>
       <c r="AY236" s="66"/>
-    </row>
-    <row r="237" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ236" s="66"/>
+    </row>
+    <row r="237" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A237" s="53" t="s">
         <v>16</v>
       </c>
@@ -26620,10 +26631,10 @@
       <c r="AQ237" s="53"/>
       <c r="AR237" s="53"/>
       <c r="AS237" s="53"/>
-      <c r="AX237" s="66"/>
       <c r="AY237" s="66"/>
-    </row>
-    <row r="238" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ237" s="66"/>
+    </row>
+    <row r="238" spans="1:52" ht="13" customHeight="1">
       <c r="A238" s="40" t="s">
         <v>20</v>
       </c>
@@ -26727,10 +26738,10 @@
       <c r="AT238" s="16"/>
       <c r="AU238" s="16"/>
       <c r="AV238" s="16"/>
-      <c r="AX238" s="66"/>
       <c r="AY238" s="66"/>
-    </row>
-    <row r="239" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ238" s="66"/>
+    </row>
+    <row r="239" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A239" s="64" t="s">
         <v>2284</v>
       </c>
@@ -26760,10 +26771,10 @@
       <c r="AQ239" s="53"/>
       <c r="AR239" s="53"/>
       <c r="AS239" s="53"/>
-      <c r="AX239" s="66"/>
       <c r="AY239" s="66"/>
-    </row>
-    <row r="240" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ239" s="66"/>
+    </row>
+    <row r="240" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A240" s="53" t="s">
         <v>118</v>
       </c>
@@ -26799,10 +26810,10 @@
       <c r="AQ240" s="53"/>
       <c r="AR240" s="53"/>
       <c r="AS240" s="53"/>
-      <c r="AX240" s="66"/>
       <c r="AY240" s="66"/>
-    </row>
-    <row r="241" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ240" s="66"/>
+    </row>
+    <row r="241" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A241" s="53" t="s">
         <v>14</v>
       </c>
@@ -26827,10 +26838,10 @@
       <c r="AQ241" s="53"/>
       <c r="AR241" s="53"/>
       <c r="AS241" s="53"/>
-      <c r="AX241" s="66"/>
       <c r="AY241" s="66"/>
-    </row>
-    <row r="242" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ241" s="66"/>
+    </row>
+    <row r="242" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A242" s="53" t="s">
         <v>27</v>
       </c>
@@ -26854,10 +26865,10 @@
       <c r="AQ242" s="53"/>
       <c r="AR242" s="53"/>
       <c r="AS242" s="53"/>
-      <c r="AX242" s="66"/>
       <c r="AY242" s="66"/>
-    </row>
-    <row r="243" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ242" s="66"/>
+    </row>
+    <row r="243" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A243" s="53" t="s">
         <v>20</v>
       </c>
@@ -26887,10 +26898,10 @@
       <c r="AQ243" s="53"/>
       <c r="AR243" s="53"/>
       <c r="AS243" s="53"/>
-      <c r="AX243" s="66"/>
       <c r="AY243" s="66"/>
-    </row>
-    <row r="244" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ243" s="66"/>
+    </row>
+    <row r="244" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A244" s="53" t="s">
         <v>16</v>
       </c>
@@ -26903,10 +26914,10 @@
       <c r="J244" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="AX244" s="66"/>
       <c r="AY244" s="66"/>
-    </row>
-    <row r="245" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ244" s="66"/>
+    </row>
+    <row r="245" spans="1:52" ht="13" customHeight="1">
       <c r="A245" s="40" t="s">
         <v>20</v>
       </c>
@@ -26995,10 +27006,10 @@
       <c r="AT245" s="16"/>
       <c r="AU245" s="16"/>
       <c r="AV245" s="16"/>
-      <c r="AX245" s="66"/>
       <c r="AY245" s="66"/>
-    </row>
-    <row r="246" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ245" s="66"/>
+    </row>
+    <row r="246" spans="1:52" ht="13" customHeight="1">
       <c r="A246" s="40" t="s">
         <v>20</v>
       </c>
@@ -27063,10 +27074,10 @@
       <c r="AT246" s="16"/>
       <c r="AU246" s="16"/>
       <c r="AV246" s="16"/>
-      <c r="AX246" s="66"/>
       <c r="AY246" s="66"/>
-    </row>
-    <row r="247" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ246" s="66"/>
+    </row>
+    <row r="247" spans="1:52" ht="13" customHeight="1">
       <c r="A247" s="40" t="s">
         <v>20</v>
       </c>
@@ -27131,10 +27142,10 @@
       <c r="AT247" s="16"/>
       <c r="AU247" s="16"/>
       <c r="AV247" s="16"/>
-      <c r="AX247" s="66"/>
       <c r="AY247" s="66"/>
-    </row>
-    <row r="248" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ247" s="66"/>
+    </row>
+    <row r="248" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A248" s="64" t="s">
         <v>2284</v>
       </c>
@@ -27164,10 +27175,10 @@
       <c r="AQ248" s="53"/>
       <c r="AR248" s="53"/>
       <c r="AS248" s="53"/>
-      <c r="AX248" s="66"/>
       <c r="AY248" s="66"/>
-    </row>
-    <row r="249" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ248" s="66"/>
+    </row>
+    <row r="249" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A249" s="53" t="s">
         <v>118</v>
       </c>
@@ -27203,10 +27214,10 @@
       <c r="AQ249" s="53"/>
       <c r="AR249" s="53"/>
       <c r="AS249" s="53"/>
-      <c r="AX249" s="66"/>
       <c r="AY249" s="66"/>
-    </row>
-    <row r="250" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ249" s="66"/>
+    </row>
+    <row r="250" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A250" s="53" t="s">
         <v>14</v>
       </c>
@@ -27231,20 +27242,20 @@
       <c r="AQ250" s="53"/>
       <c r="AR250" s="53"/>
       <c r="AS250" s="53"/>
-      <c r="AX250" s="66"/>
       <c r="AY250" s="66"/>
-    </row>
-    <row r="251" spans="1:51" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ250" s="66"/>
+    </row>
+    <row r="251" spans="1:52" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A251" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B251" s="53" t="s">
         <v>861</v>
       </c>
-      <c r="AX251" s="66"/>
       <c r="AY251" s="66"/>
-    </row>
-    <row r="252" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ251" s="66"/>
+    </row>
+    <row r="252" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A252" s="53" t="s">
         <v>20</v>
       </c>
@@ -27274,10 +27285,10 @@
       <c r="AQ252" s="53"/>
       <c r="AR252" s="53"/>
       <c r="AS252" s="53"/>
-      <c r="AX252" s="66"/>
       <c r="AY252" s="66"/>
-    </row>
-    <row r="253" spans="1:51" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ252" s="66"/>
+    </row>
+    <row r="253" spans="1:52" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A253" s="53" t="s">
         <v>20</v>
       </c>
@@ -27305,10 +27316,10 @@
       <c r="AQ253" s="53"/>
       <c r="AR253" s="53"/>
       <c r="AS253" s="53"/>
-      <c r="AX253" s="66"/>
       <c r="AY253" s="66"/>
-    </row>
-    <row r="254" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ253" s="66"/>
+    </row>
+    <row r="254" spans="1:52" ht="13" customHeight="1">
       <c r="A254" s="40" t="s">
         <v>14</v>
       </c>
@@ -27347,10 +27358,10 @@
       <c r="AT254" s="16"/>
       <c r="AU254" s="16"/>
       <c r="AV254" s="16"/>
-      <c r="AX254" s="66"/>
       <c r="AY254" s="66"/>
-    </row>
-    <row r="255" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ254" s="66"/>
+    </row>
+    <row r="255" spans="1:52" ht="13" customHeight="1">
       <c r="A255" s="40" t="s">
         <v>14</v>
       </c>
@@ -27389,10 +27400,10 @@
       <c r="AT255" s="16"/>
       <c r="AU255" s="16"/>
       <c r="AV255" s="16"/>
-      <c r="AX255" s="66"/>
       <c r="AY255" s="66"/>
-    </row>
-    <row r="256" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ255" s="66"/>
+    </row>
+    <row r="256" spans="1:52" ht="13" customHeight="1">
       <c r="A256" s="40" t="s">
         <v>28</v>
       </c>
@@ -27459,10 +27470,10 @@
       <c r="AT256" s="16"/>
       <c r="AU256" s="16"/>
       <c r="AV256" s="16"/>
-      <c r="AX256" s="66"/>
       <c r="AY256" s="66"/>
-    </row>
-    <row r="257" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ256" s="66"/>
+    </row>
+    <row r="257" spans="1:52" ht="13" customHeight="1">
       <c r="A257" s="40" t="s">
         <v>20</v>
       </c>
@@ -27555,10 +27566,10 @@
       <c r="AT257" s="16"/>
       <c r="AU257" s="16"/>
       <c r="AV257" s="16"/>
-      <c r="AX257" s="66"/>
       <c r="AY257" s="66"/>
-    </row>
-    <row r="258" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ257" s="66"/>
+    </row>
+    <row r="258" spans="1:52" ht="13" customHeight="1">
       <c r="A258" s="40" t="s">
         <v>269</v>
       </c>
@@ -27624,10 +27635,10 @@
       <c r="AT258" s="16"/>
       <c r="AU258" s="16"/>
       <c r="AV258" s="16"/>
-      <c r="AX258" s="66"/>
       <c r="AY258" s="66"/>
-    </row>
-    <row r="259" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ258" s="66"/>
+    </row>
+    <row r="259" spans="1:52" ht="13" customHeight="1">
       <c r="A259" s="40" t="s">
         <v>16</v>
       </c>
@@ -27668,10 +27679,10 @@
       <c r="AT259" s="16"/>
       <c r="AU259" s="16"/>
       <c r="AV259" s="16"/>
-      <c r="AX259" s="66"/>
       <c r="AY259" s="66"/>
-    </row>
-    <row r="260" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ259" s="66"/>
+    </row>
+    <row r="260" spans="1:52" ht="13" customHeight="1">
       <c r="A260" s="40" t="s">
         <v>14</v>
       </c>
@@ -27710,10 +27721,10 @@
       <c r="AT260" s="16"/>
       <c r="AU260" s="16"/>
       <c r="AV260" s="16"/>
-      <c r="AX260" s="66"/>
       <c r="AY260" s="66"/>
-    </row>
-    <row r="261" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ260" s="66"/>
+    </row>
+    <row r="261" spans="1:52" ht="13" customHeight="1">
       <c r="A261" s="40" t="s">
         <v>14</v>
       </c>
@@ -27752,10 +27763,10 @@
       <c r="AT261" s="16"/>
       <c r="AU261" s="16"/>
       <c r="AV261" s="16"/>
-      <c r="AX261" s="66"/>
       <c r="AY261" s="66"/>
-    </row>
-    <row r="262" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ261" s="66"/>
+    </row>
+    <row r="262" spans="1:52" ht="13" customHeight="1">
       <c r="A262" s="40" t="s">
         <v>14</v>
       </c>
@@ -27794,10 +27805,10 @@
       <c r="AT262" s="16"/>
       <c r="AU262" s="16"/>
       <c r="AV262" s="16"/>
-      <c r="AX262" s="66"/>
       <c r="AY262" s="66"/>
-    </row>
-    <row r="263" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ262" s="66"/>
+    </row>
+    <row r="263" spans="1:52" ht="13" customHeight="1">
       <c r="A263" s="40" t="s">
         <v>275</v>
       </c>
@@ -27887,10 +27898,10 @@
       <c r="AT263" s="16"/>
       <c r="AU263" s="16"/>
       <c r="AV263" s="16"/>
-      <c r="AX263" s="66"/>
       <c r="AY263" s="66"/>
-    </row>
-    <row r="264" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ263" s="66"/>
+    </row>
+    <row r="264" spans="1:52" ht="13" customHeight="1">
       <c r="A264" s="40" t="s">
         <v>101</v>
       </c>
@@ -27955,10 +27966,10 @@
       <c r="AT264" s="16"/>
       <c r="AU264" s="16"/>
       <c r="AV264" s="16"/>
-      <c r="AX264" s="66"/>
       <c r="AY264" s="66"/>
-    </row>
-    <row r="265" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ264" s="66"/>
+    </row>
+    <row r="265" spans="1:52" ht="13" customHeight="1">
       <c r="A265" s="40" t="s">
         <v>27</v>
       </c>
@@ -27995,10 +28006,10 @@
       <c r="AT265" s="16"/>
       <c r="AU265" s="16"/>
       <c r="AV265" s="16"/>
-      <c r="AX265" s="66"/>
       <c r="AY265" s="66"/>
-    </row>
-    <row r="266" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ265" s="66"/>
+    </row>
+    <row r="266" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A266" s="40" t="s">
         <v>275</v>
       </c>
@@ -28090,10 +28101,10 @@
       <c r="AT266" s="10"/>
       <c r="AU266" s="10"/>
       <c r="AV266" s="10"/>
-      <c r="AX266" s="66"/>
       <c r="AY266" s="66"/>
-    </row>
-    <row r="267" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ266" s="66"/>
+    </row>
+    <row r="267" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A267" s="40" t="s">
         <v>275</v>
       </c>
@@ -28185,10 +28196,10 @@
       <c r="AT267" s="10"/>
       <c r="AU267" s="10"/>
       <c r="AV267" s="10"/>
-      <c r="AX267" s="66"/>
       <c r="AY267" s="66"/>
-    </row>
-    <row r="268" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ267" s="66"/>
+    </row>
+    <row r="268" spans="1:52" ht="13" customHeight="1">
       <c r="A268" s="40" t="s">
         <v>215</v>
       </c>
@@ -28254,10 +28265,10 @@
       <c r="AT268" s="16"/>
       <c r="AU268" s="16"/>
       <c r="AV268" s="16"/>
-      <c r="AX268" s="66"/>
       <c r="AY268" s="66"/>
-    </row>
-    <row r="269" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ268" s="66"/>
+    </row>
+    <row r="269" spans="1:52" ht="13" customHeight="1">
       <c r="A269" s="40" t="s">
         <v>215</v>
       </c>
@@ -28323,10 +28334,10 @@
       <c r="AT269" s="16"/>
       <c r="AU269" s="16"/>
       <c r="AV269" s="16"/>
-      <c r="AX269" s="66"/>
       <c r="AY269" s="66"/>
-    </row>
-    <row r="270" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ269" s="66"/>
+    </row>
+    <row r="270" spans="1:52" ht="13" customHeight="1">
       <c r="A270" s="40" t="s">
         <v>215</v>
       </c>
@@ -28392,10 +28403,10 @@
       <c r="AT270" s="16"/>
       <c r="AU270" s="16"/>
       <c r="AV270" s="16"/>
-      <c r="AX270" s="66"/>
       <c r="AY270" s="66"/>
-    </row>
-    <row r="271" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ270" s="66"/>
+    </row>
+    <row r="271" spans="1:52" ht="13" customHeight="1">
       <c r="A271" s="40" t="s">
         <v>215</v>
       </c>
@@ -28461,10 +28472,10 @@
       <c r="AT271" s="16"/>
       <c r="AU271" s="16"/>
       <c r="AV271" s="16"/>
-      <c r="AX271" s="66"/>
       <c r="AY271" s="66"/>
-    </row>
-    <row r="272" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ271" s="66"/>
+    </row>
+    <row r="272" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A272" s="40" t="s">
         <v>215</v>
       </c>
@@ -28538,10 +28549,10 @@
       <c r="AT272" s="10"/>
       <c r="AU272" s="10"/>
       <c r="AV272" s="10"/>
-      <c r="AX272" s="66"/>
       <c r="AY272" s="66"/>
-    </row>
-    <row r="273" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ272" s="66"/>
+    </row>
+    <row r="273" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A273" s="40" t="s">
         <v>215</v>
       </c>
@@ -28615,10 +28626,10 @@
       <c r="AT273" s="10"/>
       <c r="AU273" s="10"/>
       <c r="AV273" s="10"/>
-      <c r="AX273" s="66"/>
       <c r="AY273" s="66"/>
-    </row>
-    <row r="274" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ273" s="66"/>
+    </row>
+    <row r="274" spans="1:52" ht="13" customHeight="1">
       <c r="A274" s="40" t="s">
         <v>283</v>
       </c>
@@ -28684,10 +28695,10 @@
       <c r="AT274" s="16"/>
       <c r="AU274" s="16"/>
       <c r="AV274" s="16"/>
-      <c r="AX274" s="66"/>
       <c r="AY274" s="66"/>
-    </row>
-    <row r="275" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ274" s="66"/>
+    </row>
+    <row r="275" spans="1:52" ht="13" customHeight="1">
       <c r="A275" s="40" t="s">
         <v>286</v>
       </c>
@@ -28753,10 +28764,10 @@
       <c r="AT275" s="16"/>
       <c r="AU275" s="16"/>
       <c r="AV275" s="16"/>
-      <c r="AX275" s="66"/>
       <c r="AY275" s="66"/>
-    </row>
-    <row r="276" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ275" s="66"/>
+    </row>
+    <row r="276" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A276" s="40" t="s">
         <v>286</v>
       </c>
@@ -28830,10 +28841,10 @@
       <c r="AT276" s="10"/>
       <c r="AU276" s="10"/>
       <c r="AV276" s="10"/>
-      <c r="AX276" s="66"/>
       <c r="AY276" s="66"/>
-    </row>
-    <row r="277" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ276" s="66"/>
+    </row>
+    <row r="277" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A277" s="40" t="s">
         <v>286</v>
       </c>
@@ -28907,10 +28918,10 @@
       <c r="AT277" s="10"/>
       <c r="AU277" s="10"/>
       <c r="AV277" s="10"/>
-      <c r="AX277" s="66"/>
       <c r="AY277" s="66"/>
-    </row>
-    <row r="278" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ277" s="66"/>
+    </row>
+    <row r="278" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A278" s="40" t="s">
         <v>14</v>
       </c>
@@ -28964,10 +28975,10 @@
       <c r="AT278" s="10"/>
       <c r="AU278" s="10"/>
       <c r="AV278" s="10"/>
-      <c r="AX278" s="66"/>
       <c r="AY278" s="66"/>
-    </row>
-    <row r="279" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ278" s="66"/>
+    </row>
+    <row r="279" spans="1:52" ht="13" customHeight="1">
       <c r="A279" s="40" t="s">
         <v>165</v>
       </c>
@@ -29033,10 +29044,10 @@
       <c r="AT279" s="16"/>
       <c r="AU279" s="16"/>
       <c r="AV279" s="16"/>
-      <c r="AX279" s="66"/>
       <c r="AY279" s="66"/>
-    </row>
-    <row r="280" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ279" s="66"/>
+    </row>
+    <row r="280" spans="1:52" ht="13" customHeight="1">
       <c r="A280" s="40" t="s">
         <v>165</v>
       </c>
@@ -29102,10 +29113,10 @@
       <c r="AT280" s="16"/>
       <c r="AU280" s="16"/>
       <c r="AV280" s="16"/>
-      <c r="AX280" s="69"/>
       <c r="AY280" s="69"/>
-    </row>
-    <row r="281" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ280" s="69"/>
+    </row>
+    <row r="281" spans="1:52" ht="13" customHeight="1">
       <c r="A281" s="40" t="s">
         <v>215</v>
       </c>
@@ -29171,10 +29182,10 @@
       <c r="AT281" s="16"/>
       <c r="AU281" s="16"/>
       <c r="AV281" s="16"/>
-      <c r="AX281" s="69"/>
       <c r="AY281" s="69"/>
-    </row>
-    <row r="282" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ281" s="69"/>
+    </row>
+    <row r="282" spans="1:52" ht="13" customHeight="1">
       <c r="A282" s="40" t="s">
         <v>291</v>
       </c>
@@ -29287,10 +29298,10 @@
       <c r="AT282" s="16"/>
       <c r="AU282" s="16"/>
       <c r="AV282" s="16"/>
-      <c r="AX282" s="69"/>
       <c r="AY282" s="69"/>
-    </row>
-    <row r="283" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ282" s="69"/>
+    </row>
+    <row r="283" spans="1:52" ht="13" customHeight="1">
       <c r="A283" s="40" t="s">
         <v>215</v>
       </c>
@@ -29356,10 +29367,10 @@
       <c r="AT283" s="16"/>
       <c r="AU283" s="16"/>
       <c r="AV283" s="16"/>
-      <c r="AX283" s="69"/>
       <c r="AY283" s="69"/>
-    </row>
-    <row r="284" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ283" s="69"/>
+    </row>
+    <row r="284" spans="1:52" ht="13" customHeight="1">
       <c r="A284" s="40" t="s">
         <v>14</v>
       </c>
@@ -29398,10 +29409,10 @@
       <c r="AT284" s="16"/>
       <c r="AU284" s="16"/>
       <c r="AV284" s="16"/>
-      <c r="AX284" s="69"/>
       <c r="AY284" s="69"/>
-    </row>
-    <row r="285" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ284" s="69"/>
+    </row>
+    <row r="285" spans="1:52" ht="13" customHeight="1">
       <c r="A285" s="40" t="s">
         <v>14</v>
       </c>
@@ -29440,10 +29451,10 @@
       <c r="AT285" s="16"/>
       <c r="AU285" s="16"/>
       <c r="AV285" s="16"/>
-      <c r="AX285" s="69"/>
       <c r="AY285" s="69"/>
-    </row>
-    <row r="286" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ285" s="69"/>
+    </row>
+    <row r="286" spans="1:52" ht="13" customHeight="1">
       <c r="A286" s="40" t="s">
         <v>45</v>
       </c>
@@ -29555,10 +29566,10 @@
       <c r="AT286" s="16"/>
       <c r="AU286" s="16"/>
       <c r="AV286" s="16"/>
-      <c r="AX286" s="66"/>
       <c r="AY286" s="66"/>
-    </row>
-    <row r="287" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ286" s="66"/>
+    </row>
+    <row r="287" spans="1:52" ht="13" customHeight="1">
       <c r="A287" s="40" t="s">
         <v>28</v>
       </c>
@@ -29670,10 +29681,10 @@
       <c r="AT287" s="16"/>
       <c r="AU287" s="16"/>
       <c r="AV287" s="16"/>
-      <c r="AX287" s="66"/>
       <c r="AY287" s="66"/>
-    </row>
-    <row r="288" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ287" s="66"/>
+    </row>
+    <row r="288" spans="1:52" ht="13" customHeight="1">
       <c r="A288" s="40" t="s">
         <v>45</v>
       </c>
@@ -29785,10 +29796,10 @@
       <c r="AT288" s="16"/>
       <c r="AU288" s="16"/>
       <c r="AV288" s="16"/>
-      <c r="AX288" s="66"/>
       <c r="AY288" s="66"/>
-    </row>
-    <row r="289" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ288" s="66"/>
+    </row>
+    <row r="289" spans="1:52" ht="13" customHeight="1">
       <c r="A289" s="40" t="s">
         <v>28</v>
       </c>
@@ -29880,10 +29891,10 @@
       <c r="AT289" s="16"/>
       <c r="AU289" s="16"/>
       <c r="AV289" s="16"/>
-      <c r="AX289" s="66"/>
       <c r="AY289" s="66"/>
-    </row>
-    <row r="290" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ289" s="66"/>
+    </row>
+    <row r="290" spans="1:52" ht="13" customHeight="1">
       <c r="A290" s="40" t="s">
         <v>16</v>
       </c>
@@ -29924,10 +29935,10 @@
       <c r="AT290" s="16"/>
       <c r="AU290" s="16"/>
       <c r="AV290" s="16"/>
-      <c r="AX290" s="66"/>
       <c r="AY290" s="66"/>
-    </row>
-    <row r="291" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ290" s="66"/>
+    </row>
+    <row r="291" spans="1:52" ht="13" customHeight="1">
       <c r="A291" s="40" t="s">
         <v>311</v>
       </c>
@@ -30038,10 +30049,10 @@
       <c r="AT291" s="16"/>
       <c r="AU291" s="16"/>
       <c r="AV291" s="16"/>
-      <c r="AX291" s="66"/>
       <c r="AY291" s="66"/>
-    </row>
-    <row r="292" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ291" s="66"/>
+    </row>
+    <row r="292" spans="1:52" ht="13" customHeight="1">
       <c r="A292" s="40" t="s">
         <v>101</v>
       </c>
@@ -30106,10 +30117,10 @@
       <c r="AT292" s="16"/>
       <c r="AU292" s="16"/>
       <c r="AV292" s="16"/>
-      <c r="AX292" s="66"/>
       <c r="AY292" s="66"/>
-    </row>
-    <row r="293" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ292" s="66"/>
+    </row>
+    <row r="293" spans="1:52" ht="13" customHeight="1">
       <c r="A293" s="40" t="s">
         <v>27</v>
       </c>
@@ -30146,10 +30157,10 @@
       <c r="AT293" s="16"/>
       <c r="AU293" s="16"/>
       <c r="AV293" s="16"/>
-      <c r="AX293" s="66"/>
       <c r="AY293" s="66"/>
-    </row>
-    <row r="294" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ293" s="66"/>
+    </row>
+    <row r="294" spans="1:52" ht="13" customHeight="1">
       <c r="A294" s="40" t="s">
         <v>20</v>
       </c>
@@ -30216,10 +30227,10 @@
       <c r="AT294" s="16"/>
       <c r="AU294" s="16"/>
       <c r="AV294" s="16"/>
-      <c r="AX294" s="66"/>
       <c r="AY294" s="66"/>
-    </row>
-    <row r="295" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ294" s="66"/>
+    </row>
+    <row r="295" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A295" s="40" t="s">
         <v>1029</v>
       </c>
@@ -30329,10 +30340,10 @@
       <c r="AV295" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="AX295" s="66"/>
       <c r="AY295" s="66"/>
-    </row>
-    <row r="296" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ295" s="66"/>
+    </row>
+    <row r="296" spans="1:52" ht="13" customHeight="1">
       <c r="A296" s="40" t="s">
         <v>16</v>
       </c>
@@ -30372,10 +30383,10 @@
       <c r="AT296" s="16"/>
       <c r="AU296" s="16"/>
       <c r="AV296" s="16"/>
-      <c r="AX296" s="66"/>
       <c r="AY296" s="66"/>
-    </row>
-    <row r="297" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ296" s="66"/>
+    </row>
+    <row r="297" spans="1:52" ht="13" customHeight="1">
       <c r="A297" s="40" t="s">
         <v>20</v>
       </c>
@@ -30440,10 +30451,10 @@
       <c r="AT297" s="16"/>
       <c r="AU297" s="16"/>
       <c r="AV297" s="16"/>
-      <c r="AX297" s="66"/>
       <c r="AY297" s="66"/>
-    </row>
-    <row r="298" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ297" s="66"/>
+    </row>
+    <row r="298" spans="1:52" ht="13" customHeight="1">
       <c r="A298" s="40" t="s">
         <v>20</v>
       </c>
@@ -30508,10 +30519,10 @@
       <c r="AT298" s="16"/>
       <c r="AU298" s="16"/>
       <c r="AV298" s="16"/>
-      <c r="AX298" s="66"/>
       <c r="AY298" s="66"/>
-    </row>
-    <row r="299" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ298" s="66"/>
+    </row>
+    <row r="299" spans="1:52" ht="13" customHeight="1">
       <c r="A299" s="40" t="s">
         <v>20</v>
       </c>
@@ -30576,10 +30587,10 @@
       <c r="AT299" s="16"/>
       <c r="AU299" s="16"/>
       <c r="AV299" s="16"/>
-      <c r="AX299" s="66"/>
       <c r="AY299" s="66"/>
-    </row>
-    <row r="300" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ299" s="66"/>
+    </row>
+    <row r="300" spans="1:52" ht="13" customHeight="1">
       <c r="A300" s="40" t="s">
         <v>20</v>
       </c>
@@ -30644,10 +30655,10 @@
       <c r="AT300" s="16"/>
       <c r="AU300" s="16"/>
       <c r="AV300" s="16"/>
-      <c r="AX300" s="66"/>
       <c r="AY300" s="66"/>
-    </row>
-    <row r="301" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ300" s="66"/>
+    </row>
+    <row r="301" spans="1:52" ht="13" customHeight="1">
       <c r="A301" s="40" t="s">
         <v>318</v>
       </c>
@@ -30757,10 +30768,10 @@
       <c r="AT301" s="16"/>
       <c r="AU301" s="16"/>
       <c r="AV301" s="16"/>
-      <c r="AX301" s="66"/>
       <c r="AY301" s="66"/>
-    </row>
-    <row r="302" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ301" s="66"/>
+    </row>
+    <row r="302" spans="1:52" ht="13" customHeight="1">
       <c r="A302" s="40" t="s">
         <v>101</v>
       </c>
@@ -30824,10 +30835,10 @@
       <c r="AT302" s="16"/>
       <c r="AU302" s="16"/>
       <c r="AV302" s="16"/>
-      <c r="AX302" s="66"/>
       <c r="AY302" s="66"/>
-    </row>
-    <row r="303" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ302" s="66"/>
+    </row>
+    <row r="303" spans="1:52" ht="13" customHeight="1">
       <c r="A303" s="40" t="s">
         <v>27</v>
       </c>
@@ -30863,10 +30874,10 @@
       <c r="AT303" s="16"/>
       <c r="AU303" s="16"/>
       <c r="AV303" s="16"/>
-      <c r="AX303" s="66"/>
       <c r="AY303" s="66"/>
-    </row>
-    <row r="304" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ303" s="66"/>
+    </row>
+    <row r="304" spans="1:52" ht="13" customHeight="1">
       <c r="A304" s="40" t="s">
         <v>831</v>
       </c>
@@ -30932,10 +30943,10 @@
       <c r="AT304" s="16"/>
       <c r="AU304" s="16"/>
       <c r="AV304" s="16"/>
-      <c r="AX304" s="66"/>
       <c r="AY304" s="66"/>
-    </row>
-    <row r="305" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ304" s="66"/>
+    </row>
+    <row r="305" spans="1:52" ht="13" customHeight="1">
       <c r="A305" s="40" t="s">
         <v>215</v>
       </c>
@@ -31002,10 +31013,10 @@
       <c r="AT305" s="16"/>
       <c r="AU305" s="16"/>
       <c r="AV305" s="16"/>
-      <c r="AX305" s="66"/>
       <c r="AY305" s="66"/>
-    </row>
-    <row r="306" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ305" s="66"/>
+    </row>
+    <row r="306" spans="1:52" ht="13" customHeight="1">
       <c r="A306" s="40" t="s">
         <v>215</v>
       </c>
@@ -31098,10 +31109,10 @@
       <c r="AT306" s="16"/>
       <c r="AU306" s="16"/>
       <c r="AV306" s="16"/>
-      <c r="AX306" s="66"/>
       <c r="AY306" s="66"/>
-    </row>
-    <row r="307" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ306" s="66"/>
+    </row>
+    <row r="307" spans="1:52" ht="13" customHeight="1">
       <c r="A307" s="40" t="s">
         <v>215</v>
       </c>
@@ -31194,10 +31205,10 @@
       <c r="AT307" s="16"/>
       <c r="AU307" s="16"/>
       <c r="AV307" s="16"/>
-      <c r="AX307" s="66"/>
       <c r="AY307" s="66"/>
-    </row>
-    <row r="308" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ307" s="66"/>
+    </row>
+    <row r="308" spans="1:52" ht="13" customHeight="1">
       <c r="A308" s="40" t="s">
         <v>215</v>
       </c>
@@ -31263,10 +31274,10 @@
       <c r="AT308" s="16"/>
       <c r="AU308" s="16"/>
       <c r="AV308" s="16"/>
-      <c r="AX308" s="66"/>
       <c r="AY308" s="66"/>
-    </row>
-    <row r="309" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ308" s="66"/>
+    </row>
+    <row r="309" spans="1:52" ht="13" customHeight="1">
       <c r="A309" s="40" t="s">
         <v>16</v>
       </c>
@@ -31305,10 +31316,10 @@
       <c r="AT309" s="16"/>
       <c r="AU309" s="16"/>
       <c r="AV309" s="16"/>
-      <c r="AX309" s="66"/>
       <c r="AY309" s="66"/>
-    </row>
-    <row r="310" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ309" s="66"/>
+    </row>
+    <row r="310" spans="1:52" ht="13" customHeight="1">
       <c r="A310" s="40" t="s">
         <v>20</v>
       </c>
@@ -31369,10 +31380,10 @@
       <c r="AT310" s="16"/>
       <c r="AU310" s="16"/>
       <c r="AV310" s="16"/>
-      <c r="AX310" s="66"/>
       <c r="AY310" s="66"/>
-    </row>
-    <row r="311" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ310" s="66"/>
+    </row>
+    <row r="311" spans="1:52" ht="13" customHeight="1">
       <c r="A311" s="40" t="s">
         <v>215</v>
       </c>
@@ -31409,10 +31420,10 @@
       <c r="AT311" s="16"/>
       <c r="AU311" s="16"/>
       <c r="AV311" s="16"/>
-      <c r="AX311" s="66"/>
       <c r="AY311" s="66"/>
-    </row>
-    <row r="312" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ311" s="66"/>
+    </row>
+    <row r="312" spans="1:52" ht="13" customHeight="1">
       <c r="A312" s="40" t="s">
         <v>215</v>
       </c>
@@ -31477,10 +31488,10 @@
       <c r="AT312" s="16"/>
       <c r="AU312" s="16"/>
       <c r="AV312" s="16"/>
-      <c r="AX312" s="66"/>
       <c r="AY312" s="66"/>
-    </row>
-    <row r="313" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ312" s="66"/>
+    </row>
+    <row r="313" spans="1:52" ht="13" customHeight="1">
       <c r="A313" s="40" t="s">
         <v>215</v>
       </c>
@@ -31545,10 +31556,10 @@
       <c r="AT313" s="16"/>
       <c r="AU313" s="16"/>
       <c r="AV313" s="16"/>
-      <c r="AX313" s="66"/>
       <c r="AY313" s="66"/>
-    </row>
-    <row r="314" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ313" s="66"/>
+    </row>
+    <row r="314" spans="1:52" ht="13" customHeight="1">
       <c r="A314" s="40" t="s">
         <v>215</v>
       </c>
@@ -31613,10 +31624,10 @@
       <c r="AT314" s="16"/>
       <c r="AU314" s="16"/>
       <c r="AV314" s="16"/>
-      <c r="AX314" s="66"/>
       <c r="AY314" s="66"/>
-    </row>
-    <row r="315" spans="1:51" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ314" s="66"/>
+    </row>
+    <row r="315" spans="1:52" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A315" s="40" t="s">
         <v>215</v>
       </c>
@@ -31690,10 +31701,10 @@
       <c r="AT315" s="10"/>
       <c r="AU315" s="10"/>
       <c r="AV315" s="10"/>
-      <c r="AX315" s="66"/>
       <c r="AY315" s="66"/>
-    </row>
-    <row r="316" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ315" s="66"/>
+    </row>
+    <row r="316" spans="1:52" ht="13" customHeight="1">
       <c r="A316" s="40" t="s">
         <v>27</v>
       </c>
@@ -31728,10 +31739,10 @@
       <c r="AT316" s="16"/>
       <c r="AU316" s="16"/>
       <c r="AV316" s="16"/>
-      <c r="AX316" s="66"/>
       <c r="AY316" s="66"/>
-    </row>
-    <row r="317" spans="1:51" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ316" s="66"/>
+    </row>
+    <row r="317" spans="1:52" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A317" s="47" t="s">
         <v>20</v>
       </c>
@@ -31804,10 +31815,10 @@
       <c r="AT317" s="48"/>
       <c r="AU317" s="48"/>
       <c r="AV317" s="48"/>
-      <c r="AX317" s="66"/>
       <c r="AY317" s="66"/>
-    </row>
-    <row r="318" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ317" s="66"/>
+    </row>
+    <row r="318" spans="1:52" ht="13" customHeight="1">
       <c r="A318" s="40" t="s">
         <v>14</v>
       </c>
@@ -31844,10 +31855,10 @@
       <c r="AT318" s="16"/>
       <c r="AU318" s="16"/>
       <c r="AV318" s="16"/>
-      <c r="AX318" s="66"/>
       <c r="AY318" s="66"/>
-    </row>
-    <row r="319" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ318" s="66"/>
+    </row>
+    <row r="319" spans="1:52" ht="13" customHeight="1">
       <c r="A319" s="40" t="s">
         <v>16</v>
       </c>
@@ -31888,10 +31899,10 @@
       <c r="AT319" s="16"/>
       <c r="AU319" s="16"/>
       <c r="AV319" s="16"/>
-      <c r="AX319" s="66"/>
       <c r="AY319" s="66"/>
-    </row>
-    <row r="320" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ319" s="66"/>
+    </row>
+    <row r="320" spans="1:52" ht="13" customHeight="1">
       <c r="A320" s="40" t="s">
         <v>20</v>
       </c>
@@ -31954,10 +31965,10 @@
       <c r="AT320" s="16"/>
       <c r="AU320" s="16"/>
       <c r="AV320" s="16"/>
-      <c r="AX320" s="66"/>
       <c r="AY320" s="66"/>
-    </row>
-    <row r="321" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ320" s="66"/>
+    </row>
+    <row r="321" spans="1:52" ht="13" customHeight="1">
       <c r="A321" s="40" t="s">
         <v>20</v>
       </c>
@@ -32020,10 +32031,10 @@
       <c r="AT321" s="16"/>
       <c r="AU321" s="16"/>
       <c r="AV321" s="16"/>
-      <c r="AX321" s="66"/>
       <c r="AY321" s="66"/>
-    </row>
-    <row r="322" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ321" s="66"/>
+    </row>
+    <row r="322" spans="1:52" ht="13" customHeight="1">
       <c r="A322" s="40" t="s">
         <v>20</v>
       </c>
@@ -32088,10 +32099,10 @@
       <c r="AT322" s="16"/>
       <c r="AU322" s="16"/>
       <c r="AV322" s="16"/>
-      <c r="AX322" s="66"/>
       <c r="AY322" s="66"/>
-    </row>
-    <row r="323" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ322" s="66"/>
+    </row>
+    <row r="323" spans="1:52" ht="13" customHeight="1">
       <c r="A323" s="40" t="s">
         <v>20</v>
       </c>
@@ -32156,10 +32167,10 @@
       <c r="AT323" s="16"/>
       <c r="AU323" s="16"/>
       <c r="AV323" s="16"/>
-      <c r="AX323" s="66"/>
       <c r="AY323" s="66"/>
-    </row>
-    <row r="324" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ323" s="66"/>
+    </row>
+    <row r="324" spans="1:52" ht="13" customHeight="1">
       <c r="A324" s="40" t="s">
         <v>45</v>
       </c>
@@ -32270,10 +32281,10 @@
       <c r="AT324" s="16"/>
       <c r="AU324" s="16"/>
       <c r="AV324" s="16"/>
-      <c r="AX324" s="66"/>
       <c r="AY324" s="66"/>
-    </row>
-    <row r="325" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ324" s="66"/>
+    </row>
+    <row r="325" spans="1:52" ht="13" customHeight="1">
       <c r="A325" s="40" t="s">
         <v>27</v>
       </c>
@@ -32326,10 +32337,10 @@
       <c r="AT325" s="16"/>
       <c r="AU325" s="16"/>
       <c r="AV325" s="16"/>
-      <c r="AX325" s="66"/>
       <c r="AY325" s="66"/>
-    </row>
-    <row r="326" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ325" s="66"/>
+    </row>
+    <row r="326" spans="1:52" ht="13" customHeight="1">
       <c r="A326" s="40" t="s">
         <v>20</v>
       </c>
@@ -32421,10 +32432,10 @@
       <c r="AT326" s="16"/>
       <c r="AU326" s="16"/>
       <c r="AV326" s="16"/>
-      <c r="AX326" s="66"/>
       <c r="AY326" s="66"/>
-    </row>
-    <row r="327" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ326" s="66"/>
+    </row>
+    <row r="327" spans="1:52" ht="13" customHeight="1">
       <c r="A327" s="40" t="s">
         <v>14</v>
       </c>
@@ -32464,10 +32475,10 @@
       <c r="AT327" s="16"/>
       <c r="AU327" s="16"/>
       <c r="AV327" s="16"/>
-      <c r="AX327" s="66"/>
       <c r="AY327" s="66"/>
-    </row>
-    <row r="328" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ327" s="66"/>
+    </row>
+    <row r="328" spans="1:52" ht="13" customHeight="1">
       <c r="A328" s="40" t="s">
         <v>28</v>
       </c>
@@ -32579,10 +32590,10 @@
       <c r="AT328" s="16"/>
       <c r="AU328" s="16"/>
       <c r="AV328" s="16"/>
-      <c r="AX328" s="66"/>
       <c r="AY328" s="66"/>
-    </row>
-    <row r="329" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ328" s="66"/>
+    </row>
+    <row r="329" spans="1:52" ht="13" customHeight="1">
       <c r="A329" s="40" t="s">
         <v>28</v>
       </c>
@@ -32694,10 +32705,10 @@
       <c r="AT329" s="16"/>
       <c r="AU329" s="16"/>
       <c r="AV329" s="16"/>
-      <c r="AX329" s="66"/>
       <c r="AY329" s="66"/>
-    </row>
-    <row r="330" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ329" s="66"/>
+    </row>
+    <row r="330" spans="1:52" ht="13" customHeight="1">
       <c r="A330" s="40" t="s">
         <v>28</v>
       </c>
@@ -32809,10 +32820,10 @@
       <c r="AT330" s="16"/>
       <c r="AU330" s="16"/>
       <c r="AV330" s="16"/>
-      <c r="AX330" s="66"/>
       <c r="AY330" s="66"/>
-    </row>
-    <row r="331" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ330" s="66"/>
+    </row>
+    <row r="331" spans="1:52" ht="13" customHeight="1">
       <c r="A331" s="40" t="s">
         <v>14</v>
       </c>
@@ -32852,10 +32863,10 @@
       <c r="AT331" s="16"/>
       <c r="AU331" s="16"/>
       <c r="AV331" s="16"/>
-      <c r="AX331" s="66"/>
       <c r="AY331" s="66"/>
-    </row>
-    <row r="332" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ331" s="66"/>
+    </row>
+    <row r="332" spans="1:52" ht="13" customHeight="1">
       <c r="A332" s="40" t="s">
         <v>16</v>
       </c>
@@ -32896,10 +32907,10 @@
       <c r="AT332" s="16"/>
       <c r="AU332" s="16"/>
       <c r="AV332" s="16"/>
-      <c r="AX332" s="66"/>
       <c r="AY332" s="66"/>
-    </row>
-    <row r="333" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ332" s="66"/>
+    </row>
+    <row r="333" spans="1:52" ht="13" customHeight="1">
       <c r="A333" s="40" t="s">
         <v>20</v>
       </c>
@@ -32961,10 +32972,10 @@
       <c r="AT333" s="16"/>
       <c r="AU333" s="16"/>
       <c r="AV333" s="16"/>
-      <c r="AX333" s="66"/>
       <c r="AY333" s="66"/>
-    </row>
-    <row r="334" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ333" s="66"/>
+    </row>
+    <row r="334" spans="1:52" ht="13" customHeight="1">
       <c r="A334" s="40" t="s">
         <v>20</v>
       </c>
@@ -33029,10 +33040,10 @@
       <c r="AT334" s="16"/>
       <c r="AU334" s="16"/>
       <c r="AV334" s="16"/>
-      <c r="AX334" s="66"/>
       <c r="AY334" s="66"/>
-    </row>
-    <row r="335" spans="1:51" ht="13" customHeight="1">
+      <c r="AZ334" s="66"/>
+    </row>
+    <row r="335" spans="1:52" ht="13" customHeight="1">
       <c r="A335" s="40" t="s">
         <v>20</v>
       </c>
@@ -33098,7 +33109,7 @@
       <c r="AU335" s="16"/>
       <c r="AV335" s="16"/>
     </row>
-    <row r="336" spans="1:51" ht="13" customHeight="1">
+    <row r="336" spans="1:52" ht="13" customHeight="1">
       <c r="A336" s="40" t="s">
         <v>347</v>
       </c>
